--- a/data/pitcher_data/2021/abbott_cory.xlsx
+++ b/data/pitcher_data/2021/abbott_cory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T364"/>
+  <dimension ref="A1:U364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,20 +511,25 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>inning_topbot</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>at_bat_number</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pitch_number</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>home_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>away_score</t>
         </is>
@@ -583,16 +588,21 @@
       <c r="P2" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>38</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>7</v>
       </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
       <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -643,16 +653,21 @@
       <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>38</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>6</v>
       </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
       <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -703,16 +718,21 @@
       <c r="P4" t="n">
         <v>5</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>38</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>5</v>
       </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
       <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -763,16 +783,21 @@
       <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>38</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>4</v>
       </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
       <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -823,16 +848,21 @@
       <c r="P6" t="n">
         <v>5</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>38</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>3</v>
       </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
       <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -883,16 +913,21 @@
       <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>38</v>
       </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
       <c r="S7" t="n">
         <v>2</v>
       </c>
       <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -943,16 +978,21 @@
       <c r="P8" t="n">
         <v>5</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>38</v>
       </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,16 +1053,21 @@
       <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
         <v>37</v>
       </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1075,16 +1120,21 @@
       <c r="P10" t="n">
         <v>5</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>36</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>5</v>
       </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
       <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1133,16 +1183,21 @@
       <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>36</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>4</v>
       </c>
-      <c r="S11" t="n">
-        <v>2</v>
-      </c>
       <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,16 +1246,21 @@
       <c r="P12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>36</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>3</v>
       </c>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
       <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1249,16 +1309,21 @@
       <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>36</v>
       </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
       <c r="S13" t="n">
         <v>2</v>
       </c>
       <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,16 +1372,21 @@
       <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>36</v>
       </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1371,16 +1441,21 @@
       <c r="P15" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>35</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>3</v>
       </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
       <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1429,16 +1504,21 @@
       <c r="P16" t="n">
         <v>5</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>35</v>
       </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
       <c r="S16" t="n">
         <v>2</v>
       </c>
       <c r="T16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1487,16 +1567,21 @@
       <c r="P17" t="n">
         <v>5</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
         <v>35</v>
       </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1559,16 +1644,21 @@
       <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
         <v>30</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>5</v>
       </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
       <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1621,16 +1711,21 @@
       <c r="P19" t="n">
         <v>4</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>30</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>4</v>
       </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
       <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1683,16 +1778,21 @@
       <c r="P20" t="n">
         <v>4</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>30</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>3</v>
       </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
       <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1745,16 +1845,21 @@
       <c r="P21" t="n">
         <v>4</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>30</v>
       </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
       <c r="S21" t="n">
         <v>2</v>
       </c>
       <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1807,16 +1912,21 @@
       <c r="P22" t="n">
         <v>4</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>30</v>
       </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1877,16 +1987,21 @@
       <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
         <v>29</v>
       </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,16 +2060,21 @@
       <c r="P24" t="n">
         <v>4</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>28</v>
       </c>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2013,16 +2133,21 @@
       <c r="P25" t="n">
         <v>4</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
         <v>27</v>
       </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
       <c r="S25" t="n">
         <v>2</v>
       </c>
       <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2071,16 +2196,21 @@
       <c r="P26" t="n">
         <v>4</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>27</v>
       </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2137,16 +2267,21 @@
       <c r="P27" t="n">
         <v>4</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>26</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>3</v>
       </c>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
       <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2195,16 +2330,21 @@
       <c r="P28" t="n">
         <v>4</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>26</v>
       </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2253,16 +2393,21 @@
       <c r="P29" t="n">
         <v>4</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
         <v>26</v>
       </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
       <c r="S29" t="n">
         <v>1</v>
       </c>
       <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2321,16 +2466,21 @@
       <c r="P30" t="n">
         <v>4</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>25</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>4</v>
       </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
       <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2379,16 +2529,21 @@
       <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
         <v>25</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>3</v>
       </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
       <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2437,16 +2592,21 @@
       <c r="P32" t="n">
         <v>4</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
         <v>25</v>
       </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2495,16 +2655,21 @@
       <c r="P33" t="n">
         <v>4</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
         <v>25</v>
       </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
       <c r="S33" t="n">
         <v>1</v>
       </c>
       <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2563,16 +2728,21 @@
       <c r="P34" t="n">
         <v>3</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
         <v>21</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>6</v>
       </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
       <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,16 +2791,21 @@
       <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
         <v>21</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>5</v>
       </c>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
       <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2679,16 +2854,21 @@
       <c r="P36" t="n">
         <v>3</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
         <v>21</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>4</v>
       </c>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
       <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2737,16 +2917,21 @@
       <c r="P37" t="n">
         <v>3</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
         <v>21</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>3</v>
       </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
       <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2795,16 +2980,21 @@
       <c r="P38" t="n">
         <v>3</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
         <v>21</v>
       </c>
-      <c r="R38" t="n">
-        <v>2</v>
-      </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2853,16 +3043,21 @@
       <c r="P39" t="n">
         <v>3</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
         <v>21</v>
       </c>
-      <c r="R39" t="n">
-        <v>1</v>
-      </c>
       <c r="S39" t="n">
         <v>1</v>
       </c>
       <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2919,16 +3114,21 @@
       <c r="P40" t="n">
         <v>3</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
         <v>20</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>4</v>
       </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
       <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2979,16 +3179,21 @@
       <c r="P41" t="n">
         <v>3</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
         <v>20</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>3</v>
       </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
       <c r="T41" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3039,16 +3244,21 @@
       <c r="P42" t="n">
         <v>3</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>20</v>
       </c>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3099,16 +3309,21 @@
       <c r="P43" t="n">
         <v>3</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
         <v>20</v>
       </c>
-      <c r="R43" t="n">
-        <v>1</v>
-      </c>
       <c r="S43" t="n">
         <v>1</v>
       </c>
       <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3161,16 +3376,21 @@
       <c r="P44" t="n">
         <v>3</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>19</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>6</v>
       </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
       <c r="T44" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,16 +3439,21 @@
       <c r="P45" t="n">
         <v>3</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>19</v>
       </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
         <v>5</v>
       </c>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
       <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3277,16 +3502,21 @@
       <c r="P46" t="n">
         <v>3</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
         <v>19</v>
       </c>
-      <c r="R46" t="n">
+      <c r="S46" t="n">
         <v>4</v>
       </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
       <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3335,16 +3565,21 @@
       <c r="P47" t="n">
         <v>3</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
         <v>19</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>3</v>
       </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
       <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3393,16 +3628,21 @@
       <c r="P48" t="n">
         <v>3</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
         <v>19</v>
       </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3451,16 +3691,21 @@
       <c r="P49" t="n">
         <v>3</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
         <v>19</v>
       </c>
-      <c r="R49" t="n">
-        <v>1</v>
-      </c>
       <c r="S49" t="n">
         <v>1</v>
       </c>
       <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3519,16 +3764,21 @@
       <c r="P50" t="n">
         <v>2</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>14</v>
       </c>
-      <c r="R50" t="n">
+      <c r="S50" t="n">
         <v>7</v>
       </c>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
       <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3577,16 +3827,21 @@
       <c r="P51" t="n">
         <v>2</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>14</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>6</v>
       </c>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
       <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3635,16 +3890,21 @@
       <c r="P52" t="n">
         <v>2</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
         <v>14</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>5</v>
       </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
       <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3693,16 +3953,21 @@
       <c r="P53" t="n">
         <v>2</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
         <v>14</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>4</v>
       </c>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
       <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3751,16 +4016,21 @@
       <c r="P54" t="n">
         <v>2</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
         <v>14</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>3</v>
       </c>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
       <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3809,16 +4079,21 @@
       <c r="P55" t="n">
         <v>2</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
         <v>14</v>
       </c>
-      <c r="R55" t="n">
-        <v>2</v>
-      </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3867,16 +4142,21 @@
       <c r="P56" t="n">
         <v>2</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
         <v>14</v>
       </c>
-      <c r="R56" t="n">
-        <v>1</v>
-      </c>
       <c r="S56" t="n">
         <v>1</v>
       </c>
       <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3935,16 +4215,21 @@
       <c r="P57" t="n">
         <v>2</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>13</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>5</v>
       </c>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
       <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3993,16 +4278,21 @@
       <c r="P58" t="n">
         <v>2</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>13</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>4</v>
       </c>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
       <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,16 +4341,21 @@
       <c r="P59" t="n">
         <v>2</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
         <v>13</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>3</v>
       </c>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
       <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4109,16 +4404,21 @@
       <c r="P60" t="n">
         <v>2</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
         <v>13</v>
       </c>
-      <c r="R60" t="n">
-        <v>2</v>
-      </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4167,16 +4467,21 @@
       <c r="P61" t="n">
         <v>2</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
         <v>13</v>
       </c>
-      <c r="R61" t="n">
-        <v>1</v>
-      </c>
       <c r="S61" t="n">
         <v>1</v>
       </c>
       <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4235,16 +4540,21 @@
       <c r="P62" t="n">
         <v>2</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>12</v>
       </c>
-      <c r="R62" t="n">
+      <c r="S62" t="n">
         <v>5</v>
       </c>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
       <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4293,16 +4603,21 @@
       <c r="P63" t="n">
         <v>2</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
         <v>12</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>4</v>
       </c>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
       <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4351,16 +4666,21 @@
       <c r="P64" t="n">
         <v>2</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>12</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>3</v>
       </c>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
       <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4409,16 +4729,21 @@
       <c r="P65" t="n">
         <v>2</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>12</v>
       </c>
-      <c r="R65" t="n">
-        <v>2</v>
-      </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,16 +4792,21 @@
       <c r="P66" t="n">
         <v>2</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
         <v>12</v>
       </c>
-      <c r="R66" t="n">
-        <v>1</v>
-      </c>
       <c r="S66" t="n">
         <v>1</v>
       </c>
       <c r="T66" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4531,16 +4861,21 @@
       <c r="P67" t="n">
         <v>1</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
         <v>7</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>5</v>
       </c>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
       <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4589,16 +4924,21 @@
       <c r="P68" t="n">
         <v>1</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
         <v>7</v>
       </c>
-      <c r="R68" t="n">
+      <c r="S68" t="n">
         <v>4</v>
       </c>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
       <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4647,16 +4987,21 @@
       <c r="P69" t="n">
         <v>1</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
         <v>7</v>
       </c>
-      <c r="R69" t="n">
+      <c r="S69" t="n">
         <v>3</v>
       </c>
-      <c r="S69" t="n">
-        <v>1</v>
-      </c>
       <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4705,16 +5050,21 @@
       <c r="P70" t="n">
         <v>1</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
         <v>7</v>
       </c>
-      <c r="R70" t="n">
-        <v>2</v>
-      </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T70" t="n">
+        <v>1</v>
+      </c>
+      <c r="U70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4763,16 +5113,21 @@
       <c r="P71" t="n">
         <v>1</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>7</v>
       </c>
-      <c r="R71" t="n">
-        <v>1</v>
-      </c>
       <c r="S71" t="n">
         <v>1</v>
       </c>
       <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4829,16 +5184,21 @@
       <c r="P72" t="n">
         <v>1</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
         <v>6</v>
       </c>
-      <c r="R72" t="n">
-        <v>2</v>
-      </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4887,16 +5247,21 @@
       <c r="P73" t="n">
         <v>1</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
         <v>6</v>
       </c>
-      <c r="R73" t="n">
-        <v>1</v>
-      </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4955,16 +5320,21 @@
       <c r="P74" t="n">
         <v>1</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
         <v>5</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>7</v>
       </c>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
       <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5013,16 +5383,21 @@
       <c r="P75" t="n">
         <v>1</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
         <v>5</v>
       </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
         <v>6</v>
       </c>
-      <c r="S75" t="n">
-        <v>0</v>
-      </c>
       <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5071,16 +5446,21 @@
       <c r="P76" t="n">
         <v>1</v>
       </c>
-      <c r="Q76" t="n">
-        <v>5</v>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
       </c>
       <c r="R76" t="n">
         <v>5</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5129,16 +5509,21 @@
       <c r="P77" t="n">
         <v>1</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
         <v>5</v>
       </c>
-      <c r="R77" t="n">
+      <c r="S77" t="n">
         <v>4</v>
       </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
       <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5187,16 +5572,21 @@
       <c r="P78" t="n">
         <v>1</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
         <v>5</v>
       </c>
-      <c r="R78" t="n">
+      <c r="S78" t="n">
         <v>3</v>
       </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
       <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5245,16 +5635,21 @@
       <c r="P79" t="n">
         <v>1</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
         <v>5</v>
       </c>
-      <c r="R79" t="n">
-        <v>2</v>
-      </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5303,16 +5698,21 @@
       <c r="P80" t="n">
         <v>1</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
         <v>5</v>
       </c>
-      <c r="R80" t="n">
-        <v>1</v>
-      </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5371,16 +5771,21 @@
       <c r="P81" t="n">
         <v>1</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
         <v>4</v>
       </c>
-      <c r="R81" t="n">
+      <c r="S81" t="n">
         <v>6</v>
       </c>
-      <c r="S81" t="n">
-        <v>0</v>
-      </c>
       <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5429,16 +5834,21 @@
       <c r="P82" t="n">
         <v>1</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
         <v>4</v>
       </c>
-      <c r="R82" t="n">
+      <c r="S82" t="n">
         <v>5</v>
       </c>
-      <c r="S82" t="n">
-        <v>0</v>
-      </c>
       <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5487,16 +5897,21 @@
       <c r="P83" t="n">
         <v>1</v>
       </c>
-      <c r="Q83" t="n">
-        <v>4</v>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
       </c>
       <c r="R83" t="n">
         <v>4</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5545,16 +5960,21 @@
       <c r="P84" t="n">
         <v>1</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
         <v>4</v>
       </c>
-      <c r="R84" t="n">
+      <c r="S84" t="n">
         <v>3</v>
       </c>
-      <c r="S84" t="n">
-        <v>0</v>
-      </c>
       <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5603,16 +6023,21 @@
       <c r="P85" t="n">
         <v>1</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
         <v>4</v>
       </c>
-      <c r="R85" t="n">
-        <v>2</v>
-      </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5661,16 +6086,21 @@
       <c r="P86" t="n">
         <v>1</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
         <v>4</v>
       </c>
-      <c r="R86" t="n">
-        <v>1</v>
-      </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5733,16 +6163,21 @@
       <c r="P87" t="n">
         <v>9</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
         <v>77</v>
       </c>
-      <c r="R87" t="n">
+      <c r="S87" t="n">
         <v>6</v>
       </c>
-      <c r="S87" t="n">
-        <v>0</v>
-      </c>
       <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5795,16 +6230,21 @@
       <c r="P88" t="n">
         <v>9</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
         <v>77</v>
       </c>
-      <c r="R88" t="n">
+      <c r="S88" t="n">
         <v>5</v>
       </c>
-      <c r="S88" t="n">
-        <v>0</v>
-      </c>
       <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5857,16 +6297,21 @@
       <c r="P89" t="n">
         <v>9</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>77</v>
       </c>
-      <c r="R89" t="n">
+      <c r="S89" t="n">
         <v>4</v>
       </c>
-      <c r="S89" t="n">
-        <v>0</v>
-      </c>
       <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5919,16 +6364,21 @@
       <c r="P90" t="n">
         <v>9</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
         <v>77</v>
       </c>
-      <c r="R90" t="n">
+      <c r="S90" t="n">
         <v>3</v>
       </c>
-      <c r="S90" t="n">
-        <v>0</v>
-      </c>
       <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5981,16 +6431,21 @@
       <c r="P91" t="n">
         <v>9</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
         <v>77</v>
       </c>
-      <c r="R91" t="n">
-        <v>2</v>
-      </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6043,16 +6498,21 @@
       <c r="P92" t="n">
         <v>9</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
         <v>77</v>
       </c>
-      <c r="R92" t="n">
-        <v>1</v>
-      </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
         <v>8</v>
       </c>
     </row>
@@ -6115,16 +6575,21 @@
       <c r="P93" t="n">
         <v>9</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
         <v>76</v>
       </c>
-      <c r="R93" t="n">
+      <c r="S93" t="n">
         <v>3</v>
       </c>
-      <c r="S93" t="n">
-        <v>0</v>
-      </c>
       <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6177,16 +6642,21 @@
       <c r="P94" t="n">
         <v>9</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
         <v>76</v>
       </c>
-      <c r="R94" t="n">
-        <v>2</v>
-      </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6239,16 +6709,21 @@
       <c r="P95" t="n">
         <v>9</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
         <v>76</v>
       </c>
-      <c r="R95" t="n">
-        <v>1</v>
-      </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6311,16 +6786,21 @@
       <c r="P96" t="n">
         <v>9</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
         <v>75</v>
       </c>
-      <c r="R96" t="n">
+      <c r="S96" t="n">
         <v>6</v>
       </c>
-      <c r="S96" t="n">
-        <v>0</v>
-      </c>
       <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6373,16 +6853,21 @@
       <c r="P97" t="n">
         <v>9</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
         <v>75</v>
       </c>
-      <c r="R97" t="n">
+      <c r="S97" t="n">
         <v>5</v>
       </c>
-      <c r="S97" t="n">
-        <v>0</v>
-      </c>
       <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6435,16 +6920,21 @@
       <c r="P98" t="n">
         <v>9</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
         <v>75</v>
       </c>
-      <c r="R98" t="n">
+      <c r="S98" t="n">
         <v>4</v>
       </c>
-      <c r="S98" t="n">
-        <v>0</v>
-      </c>
       <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6497,16 +6987,21 @@
       <c r="P99" t="n">
         <v>9</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
         <v>75</v>
       </c>
-      <c r="R99" t="n">
+      <c r="S99" t="n">
         <v>3</v>
       </c>
-      <c r="S99" t="n">
-        <v>0</v>
-      </c>
       <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6559,16 +7054,21 @@
       <c r="P100" t="n">
         <v>9</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
         <v>75</v>
       </c>
-      <c r="R100" t="n">
-        <v>2</v>
-      </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6621,16 +7121,21 @@
       <c r="P101" t="n">
         <v>9</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
         <v>75</v>
       </c>
-      <c r="R101" t="n">
-        <v>1</v>
-      </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6685,16 +7190,21 @@
       <c r="P102" t="n">
         <v>9</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
         <v>74</v>
       </c>
-      <c r="R102" t="n">
+      <c r="S102" t="n">
         <v>4</v>
       </c>
-      <c r="S102" t="n">
-        <v>0</v>
-      </c>
       <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6749,16 +7259,21 @@
       <c r="P103" t="n">
         <v>9</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
         <v>74</v>
       </c>
-      <c r="R103" t="n">
+      <c r="S103" t="n">
         <v>4</v>
       </c>
-      <c r="S103" t="n">
-        <v>0</v>
-      </c>
       <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6809,16 +7324,21 @@
       <c r="P104" t="n">
         <v>9</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
         <v>74</v>
       </c>
-      <c r="R104" t="n">
+      <c r="S104" t="n">
         <v>3</v>
       </c>
-      <c r="S104" t="n">
-        <v>0</v>
-      </c>
       <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6869,16 +7389,21 @@
       <c r="P105" t="n">
         <v>9</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>74</v>
       </c>
-      <c r="R105" t="n">
-        <v>2</v>
-      </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6929,16 +7454,21 @@
       <c r="P106" t="n">
         <v>9</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
         <v>74</v>
       </c>
-      <c r="R106" t="n">
-        <v>1</v>
-      </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6997,16 +7527,21 @@
       <c r="P107" t="n">
         <v>9</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
         <v>73</v>
       </c>
-      <c r="R107" t="n">
+      <c r="S107" t="n">
         <v>5</v>
       </c>
-      <c r="S107" t="n">
-        <v>0</v>
-      </c>
       <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7055,16 +7590,21 @@
       <c r="P108" t="n">
         <v>9</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
         <v>73</v>
       </c>
-      <c r="R108" t="n">
+      <c r="S108" t="n">
         <v>4</v>
       </c>
-      <c r="S108" t="n">
-        <v>0</v>
-      </c>
       <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7113,16 +7653,21 @@
       <c r="P109" t="n">
         <v>9</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
         <v>73</v>
       </c>
-      <c r="R109" t="n">
+      <c r="S109" t="n">
         <v>3</v>
       </c>
-      <c r="S109" t="n">
-        <v>0</v>
-      </c>
       <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7171,16 +7716,21 @@
       <c r="P110" t="n">
         <v>9</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
         <v>73</v>
       </c>
-      <c r="R110" t="n">
-        <v>2</v>
-      </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7229,16 +7779,21 @@
       <c r="P111" t="n">
         <v>9</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
         <v>73</v>
       </c>
-      <c r="R111" t="n">
-        <v>1</v>
-      </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7297,16 +7852,21 @@
       <c r="P112" t="n">
         <v>9</v>
       </c>
-      <c r="Q112" t="n">
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
         <v>72</v>
       </c>
-      <c r="R112" t="n">
+      <c r="S112" t="n">
         <v>5</v>
       </c>
-      <c r="S112" t="n">
-        <v>0</v>
-      </c>
       <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7355,16 +7915,21 @@
       <c r="P113" t="n">
         <v>9</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
         <v>72</v>
       </c>
-      <c r="R113" t="n">
+      <c r="S113" t="n">
         <v>4</v>
       </c>
-      <c r="S113" t="n">
-        <v>0</v>
-      </c>
       <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7413,16 +7978,21 @@
       <c r="P114" t="n">
         <v>9</v>
       </c>
-      <c r="Q114" t="n">
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
         <v>72</v>
       </c>
-      <c r="R114" t="n">
+      <c r="S114" t="n">
         <v>3</v>
       </c>
-      <c r="S114" t="n">
-        <v>0</v>
-      </c>
       <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7471,16 +8041,21 @@
       <c r="P115" t="n">
         <v>9</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
         <v>72</v>
       </c>
-      <c r="R115" t="n">
-        <v>2</v>
-      </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7529,16 +8104,21 @@
       <c r="P116" t="n">
         <v>9</v>
       </c>
-      <c r="Q116" t="n">
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
         <v>72</v>
       </c>
-      <c r="R116" t="n">
-        <v>1</v>
-      </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7597,16 +8177,21 @@
       <c r="P117" t="n">
         <v>9</v>
       </c>
-      <c r="Q117" t="n">
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
         <v>71</v>
       </c>
-      <c r="R117" t="n">
+      <c r="S117" t="n">
         <v>5</v>
       </c>
-      <c r="S117" t="n">
-        <v>0</v>
-      </c>
       <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7657,16 +8242,21 @@
       <c r="P118" t="n">
         <v>9</v>
       </c>
-      <c r="Q118" t="n">
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
         <v>71</v>
       </c>
-      <c r="R118" t="n">
+      <c r="S118" t="n">
         <v>4</v>
       </c>
-      <c r="S118" t="n">
-        <v>0</v>
-      </c>
       <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7717,16 +8307,21 @@
       <c r="P119" t="n">
         <v>9</v>
       </c>
-      <c r="Q119" t="n">
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
         <v>71</v>
       </c>
-      <c r="R119" t="n">
+      <c r="S119" t="n">
         <v>3</v>
       </c>
-      <c r="S119" t="n">
-        <v>0</v>
-      </c>
       <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7777,16 +8372,21 @@
       <c r="P120" t="n">
         <v>9</v>
       </c>
-      <c r="Q120" t="n">
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
         <v>71</v>
       </c>
-      <c r="R120" t="n">
-        <v>2</v>
-      </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7837,16 +8437,21 @@
       <c r="P121" t="n">
         <v>9</v>
       </c>
-      <c r="Q121" t="n">
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
         <v>71</v>
       </c>
-      <c r="R121" t="n">
-        <v>1</v>
-      </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7899,16 +8504,21 @@
       <c r="P122" t="n">
         <v>9</v>
       </c>
-      <c r="Q122" t="n">
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
         <v>70</v>
       </c>
-      <c r="R122" t="n">
+      <c r="S122" t="n">
         <v>6</v>
       </c>
-      <c r="S122" t="n">
-        <v>0</v>
-      </c>
       <c r="T122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U122" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7961,16 +8571,21 @@
       <c r="P123" t="n">
         <v>9</v>
       </c>
-      <c r="Q123" t="n">
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
         <v>70</v>
       </c>
-      <c r="R123" t="n">
+      <c r="S123" t="n">
         <v>6</v>
       </c>
-      <c r="S123" t="n">
-        <v>0</v>
-      </c>
       <c r="T123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U123" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8019,16 +8634,21 @@
       <c r="P124" t="n">
         <v>9</v>
       </c>
-      <c r="Q124" t="n">
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
         <v>70</v>
       </c>
-      <c r="R124" t="n">
+      <c r="S124" t="n">
         <v>5</v>
       </c>
-      <c r="S124" t="n">
-        <v>0</v>
-      </c>
       <c r="T124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U124" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8077,16 +8697,21 @@
       <c r="P125" t="n">
         <v>9</v>
       </c>
-      <c r="Q125" t="n">
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
         <v>70</v>
       </c>
-      <c r="R125" t="n">
+      <c r="S125" t="n">
         <v>4</v>
       </c>
-      <c r="S125" t="n">
-        <v>0</v>
-      </c>
       <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8135,16 +8760,21 @@
       <c r="P126" t="n">
         <v>9</v>
       </c>
-      <c r="Q126" t="n">
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
         <v>70</v>
       </c>
-      <c r="R126" t="n">
+      <c r="S126" t="n">
         <v>3</v>
       </c>
-      <c r="S126" t="n">
-        <v>0</v>
-      </c>
       <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8193,16 +8823,21 @@
       <c r="P127" t="n">
         <v>9</v>
       </c>
-      <c r="Q127" t="n">
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
         <v>70</v>
       </c>
-      <c r="R127" t="n">
-        <v>2</v>
-      </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8251,16 +8886,21 @@
       <c r="P128" t="n">
         <v>9</v>
       </c>
-      <c r="Q128" t="n">
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
         <v>70</v>
       </c>
-      <c r="R128" t="n">
-        <v>1</v>
-      </c>
       <c r="S128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8319,16 +8959,21 @@
       <c r="P129" t="n">
         <v>8</v>
       </c>
-      <c r="Q129" t="n">
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
         <v>63</v>
       </c>
-      <c r="R129" t="n">
-        <v>2</v>
-      </c>
       <c r="S129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8377,16 +9022,21 @@
       <c r="P130" t="n">
         <v>8</v>
       </c>
-      <c r="Q130" t="n">
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
         <v>63</v>
       </c>
-      <c r="R130" t="n">
-        <v>1</v>
-      </c>
       <c r="S130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8445,16 +9095,21 @@
       <c r="P131" t="n">
         <v>8</v>
       </c>
-      <c r="Q131" t="n">
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
         <v>62</v>
       </c>
-      <c r="R131" t="n">
+      <c r="S131" t="n">
         <v>3</v>
       </c>
-      <c r="S131" t="n">
-        <v>0</v>
-      </c>
       <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8503,16 +9158,21 @@
       <c r="P132" t="n">
         <v>8</v>
       </c>
-      <c r="Q132" t="n">
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
         <v>62</v>
       </c>
-      <c r="R132" t="n">
-        <v>2</v>
-      </c>
       <c r="S132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8561,16 +9221,21 @@
       <c r="P133" t="n">
         <v>8</v>
       </c>
-      <c r="Q133" t="n">
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
         <v>62</v>
       </c>
-      <c r="R133" t="n">
-        <v>1</v>
-      </c>
       <c r="S133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8625,16 +9290,21 @@
       <c r="P134" t="n">
         <v>8</v>
       </c>
-      <c r="Q134" t="n">
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
         <v>61</v>
       </c>
-      <c r="R134" t="n">
+      <c r="S134" t="n">
         <v>4</v>
       </c>
-      <c r="S134" t="n">
-        <v>0</v>
-      </c>
       <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8683,16 +9353,21 @@
       <c r="P135" t="n">
         <v>8</v>
       </c>
-      <c r="Q135" t="n">
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
         <v>61</v>
       </c>
-      <c r="R135" t="n">
+      <c r="S135" t="n">
         <v>3</v>
       </c>
-      <c r="S135" t="n">
-        <v>0</v>
-      </c>
       <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8741,16 +9416,21 @@
       <c r="P136" t="n">
         <v>8</v>
       </c>
-      <c r="Q136" t="n">
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
         <v>61</v>
       </c>
-      <c r="R136" t="n">
-        <v>2</v>
-      </c>
       <c r="S136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8799,16 +9479,21 @@
       <c r="P137" t="n">
         <v>8</v>
       </c>
-      <c r="Q137" t="n">
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
         <v>61</v>
       </c>
-      <c r="R137" t="n">
-        <v>1</v>
-      </c>
       <c r="S137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8867,16 +9552,21 @@
       <c r="P138" t="n">
         <v>7</v>
       </c>
-      <c r="Q138" t="n">
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
         <v>56</v>
       </c>
-      <c r="R138" t="n">
+      <c r="S138" t="n">
         <v>4</v>
       </c>
-      <c r="S138" t="n">
-        <v>0</v>
-      </c>
       <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8925,16 +9615,21 @@
       <c r="P139" t="n">
         <v>7</v>
       </c>
-      <c r="Q139" t="n">
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
         <v>56</v>
       </c>
-      <c r="R139" t="n">
+      <c r="S139" t="n">
         <v>3</v>
       </c>
-      <c r="S139" t="n">
-        <v>0</v>
-      </c>
       <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
         <v>8</v>
       </c>
     </row>
@@ -8983,16 +9678,21 @@
       <c r="P140" t="n">
         <v>7</v>
       </c>
-      <c r="Q140" t="n">
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
         <v>56</v>
       </c>
-      <c r="R140" t="n">
-        <v>2</v>
-      </c>
       <c r="S140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9041,16 +9741,21 @@
       <c r="P141" t="n">
         <v>7</v>
       </c>
-      <c r="Q141" t="n">
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
         <v>56</v>
       </c>
-      <c r="R141" t="n">
-        <v>1</v>
-      </c>
       <c r="S141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9109,16 +9814,21 @@
       <c r="P142" t="n">
         <v>7</v>
       </c>
-      <c r="Q142" t="n">
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
         <v>55</v>
       </c>
-      <c r="R142" t="n">
-        <v>2</v>
-      </c>
       <c r="S142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9167,16 +9877,21 @@
       <c r="P143" t="n">
         <v>7</v>
       </c>
-      <c r="Q143" t="n">
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
         <v>55</v>
       </c>
-      <c r="R143" t="n">
-        <v>1</v>
-      </c>
       <c r="S143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
         <v>8</v>
       </c>
     </row>
@@ -9235,16 +9950,21 @@
       <c r="P144" t="n">
         <v>7</v>
       </c>
-      <c r="Q144" t="n">
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
         <v>54</v>
       </c>
-      <c r="R144" t="n">
-        <v>2</v>
-      </c>
       <c r="S144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9295,16 +10015,21 @@
       <c r="P145" t="n">
         <v>7</v>
       </c>
-      <c r="Q145" t="n">
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
         <v>54</v>
       </c>
-      <c r="R145" t="n">
-        <v>1</v>
-      </c>
       <c r="S145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9361,16 +10086,21 @@
       <c r="P146" t="n">
         <v>7</v>
       </c>
-      <c r="Q146" t="n">
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
         <v>53</v>
       </c>
-      <c r="R146" t="n">
+      <c r="S146" t="n">
         <v>5</v>
       </c>
-      <c r="S146" t="n">
-        <v>0</v>
-      </c>
       <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9421,16 +10151,21 @@
       <c r="P147" t="n">
         <v>7</v>
       </c>
-      <c r="Q147" t="n">
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
         <v>53</v>
       </c>
-      <c r="R147" t="n">
+      <c r="S147" t="n">
         <v>4</v>
       </c>
-      <c r="S147" t="n">
-        <v>0</v>
-      </c>
       <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9481,16 +10216,21 @@
       <c r="P148" t="n">
         <v>7</v>
       </c>
-      <c r="Q148" t="n">
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
         <v>53</v>
       </c>
-      <c r="R148" t="n">
+      <c r="S148" t="n">
         <v>3</v>
       </c>
-      <c r="S148" t="n">
-        <v>0</v>
-      </c>
       <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9541,16 +10281,21 @@
       <c r="P149" t="n">
         <v>7</v>
       </c>
-      <c r="Q149" t="n">
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
         <v>53</v>
       </c>
-      <c r="R149" t="n">
-        <v>2</v>
-      </c>
       <c r="S149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9601,16 +10346,21 @@
       <c r="P150" t="n">
         <v>7</v>
       </c>
-      <c r="Q150" t="n">
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
         <v>53</v>
       </c>
-      <c r="R150" t="n">
-        <v>1</v>
-      </c>
       <c r="S150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9669,16 +10419,21 @@
       <c r="P151" t="n">
         <v>7</v>
       </c>
-      <c r="Q151" t="n">
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
         <v>52</v>
       </c>
-      <c r="R151" t="n">
+      <c r="S151" t="n">
         <v>4</v>
       </c>
-      <c r="S151" t="n">
-        <v>0</v>
-      </c>
       <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9727,16 +10482,21 @@
       <c r="P152" t="n">
         <v>7</v>
       </c>
-      <c r="Q152" t="n">
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
         <v>52</v>
       </c>
-      <c r="R152" t="n">
+      <c r="S152" t="n">
         <v>3</v>
       </c>
-      <c r="S152" t="n">
-        <v>0</v>
-      </c>
       <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9785,16 +10545,21 @@
       <c r="P153" t="n">
         <v>7</v>
       </c>
-      <c r="Q153" t="n">
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
         <v>52</v>
       </c>
-      <c r="R153" t="n">
-        <v>2</v>
-      </c>
       <c r="S153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9843,16 +10608,21 @@
       <c r="P154" t="n">
         <v>7</v>
       </c>
-      <c r="Q154" t="n">
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
         <v>52</v>
       </c>
-      <c r="R154" t="n">
-        <v>1</v>
-      </c>
       <c r="S154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
         <v>6</v>
       </c>
     </row>
@@ -9911,16 +10681,21 @@
       <c r="P155" t="n">
         <v>7</v>
       </c>
-      <c r="Q155" t="n">
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
         <v>51</v>
       </c>
-      <c r="R155" t="n">
-        <v>1</v>
-      </c>
       <c r="S155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9979,16 +10754,21 @@
       <c r="P156" t="n">
         <v>7</v>
       </c>
-      <c r="Q156" t="n">
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
         <v>50</v>
       </c>
-      <c r="R156" t="n">
+      <c r="S156" t="n">
         <v>4</v>
       </c>
-      <c r="S156" t="n">
-        <v>0</v>
-      </c>
       <c r="T156" t="n">
+        <v>0</v>
+      </c>
+      <c r="U156" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10037,16 +10817,21 @@
       <c r="P157" t="n">
         <v>7</v>
       </c>
-      <c r="Q157" t="n">
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
         <v>50</v>
       </c>
-      <c r="R157" t="n">
+      <c r="S157" t="n">
         <v>3</v>
       </c>
-      <c r="S157" t="n">
-        <v>0</v>
-      </c>
       <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10095,16 +10880,21 @@
       <c r="P158" t="n">
         <v>7</v>
       </c>
-      <c r="Q158" t="n">
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
         <v>50</v>
       </c>
-      <c r="R158" t="n">
-        <v>2</v>
-      </c>
       <c r="S158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10153,16 +10943,21 @@
       <c r="P159" t="n">
         <v>7</v>
       </c>
-      <c r="Q159" t="n">
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
         <v>50</v>
       </c>
-      <c r="R159" t="n">
-        <v>1</v>
-      </c>
       <c r="S159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T159" t="n">
+        <v>0</v>
+      </c>
+      <c r="U159" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10227,16 +11022,21 @@
       <c r="P160" t="n">
         <v>6</v>
       </c>
-      <c r="Q160" t="n">
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
         <v>46</v>
       </c>
-      <c r="R160" t="n">
+      <c r="S160" t="n">
         <v>3</v>
       </c>
-      <c r="S160" t="n">
-        <v>0</v>
-      </c>
       <c r="T160" t="n">
+        <v>0</v>
+      </c>
+      <c r="U160" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10291,16 +11091,21 @@
       <c r="P161" t="n">
         <v>6</v>
       </c>
-      <c r="Q161" t="n">
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
         <v>46</v>
       </c>
-      <c r="R161" t="n">
-        <v>2</v>
-      </c>
       <c r="S161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10355,16 +11160,21 @@
       <c r="P162" t="n">
         <v>6</v>
       </c>
-      <c r="Q162" t="n">
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
         <v>46</v>
       </c>
-      <c r="R162" t="n">
-        <v>1</v>
-      </c>
       <c r="S162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T162" t="n">
+        <v>0</v>
+      </c>
+      <c r="U162" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10421,16 +11231,21 @@
       <c r="P163" t="n">
         <v>6</v>
       </c>
-      <c r="Q163" t="n">
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
         <v>45</v>
       </c>
-      <c r="R163" t="n">
+      <c r="S163" t="n">
         <v>6</v>
       </c>
-      <c r="S163" t="n">
-        <v>0</v>
-      </c>
       <c r="T163" t="n">
+        <v>0</v>
+      </c>
+      <c r="U163" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10483,16 +11298,21 @@
       <c r="P164" t="n">
         <v>6</v>
       </c>
-      <c r="Q164" t="n">
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
         <v>45</v>
       </c>
-      <c r="R164" t="n">
+      <c r="S164" t="n">
         <v>5</v>
       </c>
-      <c r="S164" t="n">
-        <v>0</v>
-      </c>
       <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10545,16 +11365,21 @@
       <c r="P165" t="n">
         <v>6</v>
       </c>
-      <c r="Q165" t="n">
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
         <v>45</v>
       </c>
-      <c r="R165" t="n">
+      <c r="S165" t="n">
         <v>4</v>
       </c>
-      <c r="S165" t="n">
-        <v>0</v>
-      </c>
       <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10607,16 +11432,21 @@
       <c r="P166" t="n">
         <v>6</v>
       </c>
-      <c r="Q166" t="n">
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
         <v>45</v>
       </c>
-      <c r="R166" t="n">
+      <c r="S166" t="n">
         <v>3</v>
       </c>
-      <c r="S166" t="n">
-        <v>0</v>
-      </c>
       <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10669,16 +11499,21 @@
       <c r="P167" t="n">
         <v>6</v>
       </c>
-      <c r="Q167" t="n">
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
         <v>45</v>
       </c>
-      <c r="R167" t="n">
-        <v>2</v>
-      </c>
       <c r="S167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10731,16 +11566,21 @@
       <c r="P168" t="n">
         <v>6</v>
       </c>
-      <c r="Q168" t="n">
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
         <v>45</v>
       </c>
-      <c r="R168" t="n">
-        <v>1</v>
-      </c>
       <c r="S168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T168" t="n">
+        <v>0</v>
+      </c>
+      <c r="U168" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10803,16 +11643,21 @@
       <c r="P169" t="n">
         <v>6</v>
       </c>
-      <c r="Q169" t="n">
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
         <v>44</v>
       </c>
-      <c r="R169" t="n">
+      <c r="S169" t="n">
         <v>3</v>
       </c>
-      <c r="S169" t="n">
-        <v>0</v>
-      </c>
       <c r="T169" t="n">
+        <v>0</v>
+      </c>
+      <c r="U169" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10865,16 +11710,21 @@
       <c r="P170" t="n">
         <v>6</v>
       </c>
-      <c r="Q170" t="n">
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
         <v>44</v>
       </c>
-      <c r="R170" t="n">
-        <v>2</v>
-      </c>
       <c r="S170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T170" t="n">
+        <v>0</v>
+      </c>
+      <c r="U170" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10927,16 +11777,21 @@
       <c r="P171" t="n">
         <v>6</v>
       </c>
-      <c r="Q171" t="n">
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
         <v>44</v>
       </c>
-      <c r="R171" t="n">
-        <v>1</v>
-      </c>
       <c r="S171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T171" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10997,16 +11852,21 @@
       <c r="P172" t="n">
         <v>6</v>
       </c>
-      <c r="Q172" t="n">
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
         <v>43</v>
       </c>
-      <c r="R172" t="n">
+      <c r="S172" t="n">
         <v>4</v>
       </c>
-      <c r="S172" t="n">
-        <v>0</v>
-      </c>
       <c r="T172" t="n">
+        <v>0</v>
+      </c>
+      <c r="U172" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11057,16 +11917,21 @@
       <c r="P173" t="n">
         <v>6</v>
       </c>
-      <c r="Q173" t="n">
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
         <v>43</v>
       </c>
-      <c r="R173" t="n">
+      <c r="S173" t="n">
         <v>3</v>
       </c>
-      <c r="S173" t="n">
-        <v>0</v>
-      </c>
       <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11117,16 +11982,21 @@
       <c r="P174" t="n">
         <v>6</v>
       </c>
-      <c r="Q174" t="n">
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
         <v>43</v>
       </c>
-      <c r="R174" t="n">
-        <v>2</v>
-      </c>
       <c r="S174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T174" t="n">
+        <v>0</v>
+      </c>
+      <c r="U174" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11177,16 +12047,21 @@
       <c r="P175" t="n">
         <v>6</v>
       </c>
-      <c r="Q175" t="n">
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
         <v>43</v>
       </c>
-      <c r="R175" t="n">
-        <v>1</v>
-      </c>
       <c r="S175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T175" t="n">
+        <v>0</v>
+      </c>
+      <c r="U175" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11247,16 +12122,21 @@
       <c r="P176" t="n">
         <v>6</v>
       </c>
-      <c r="Q176" t="n">
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
         <v>42</v>
       </c>
-      <c r="R176" t="n">
+      <c r="S176" t="n">
         <v>12</v>
       </c>
-      <c r="S176" t="n">
-        <v>0</v>
-      </c>
       <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11307,16 +12187,21 @@
       <c r="P177" t="n">
         <v>6</v>
       </c>
-      <c r="Q177" t="n">
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
         <v>42</v>
       </c>
-      <c r="R177" t="n">
+      <c r="S177" t="n">
         <v>11</v>
       </c>
-      <c r="S177" t="n">
-        <v>0</v>
-      </c>
       <c r="T177" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11367,16 +12252,21 @@
       <c r="P178" t="n">
         <v>6</v>
       </c>
-      <c r="Q178" t="n">
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
         <v>42</v>
       </c>
-      <c r="R178" t="n">
+      <c r="S178" t="n">
         <v>10</v>
       </c>
-      <c r="S178" t="n">
-        <v>0</v>
-      </c>
       <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11427,16 +12317,21 @@
       <c r="P179" t="n">
         <v>6</v>
       </c>
-      <c r="Q179" t="n">
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
         <v>42</v>
       </c>
-      <c r="R179" t="n">
+      <c r="S179" t="n">
         <v>9</v>
       </c>
-      <c r="S179" t="n">
-        <v>0</v>
-      </c>
       <c r="T179" t="n">
+        <v>0</v>
+      </c>
+      <c r="U179" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11487,16 +12382,21 @@
       <c r="P180" t="n">
         <v>6</v>
       </c>
-      <c r="Q180" t="n">
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
         <v>42</v>
       </c>
-      <c r="R180" t="n">
+      <c r="S180" t="n">
         <v>8</v>
       </c>
-      <c r="S180" t="n">
-        <v>0</v>
-      </c>
       <c r="T180" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11547,16 +12447,21 @@
       <c r="P181" t="n">
         <v>6</v>
       </c>
-      <c r="Q181" t="n">
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
         <v>42</v>
       </c>
-      <c r="R181" t="n">
+      <c r="S181" t="n">
         <v>7</v>
       </c>
-      <c r="S181" t="n">
-        <v>0</v>
-      </c>
       <c r="T181" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11607,16 +12512,21 @@
       <c r="P182" t="n">
         <v>6</v>
       </c>
-      <c r="Q182" t="n">
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
         <v>42</v>
       </c>
-      <c r="R182" t="n">
+      <c r="S182" t="n">
         <v>6</v>
       </c>
-      <c r="S182" t="n">
-        <v>0</v>
-      </c>
       <c r="T182" t="n">
+        <v>0</v>
+      </c>
+      <c r="U182" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11667,16 +12577,21 @@
       <c r="P183" t="n">
         <v>6</v>
       </c>
-      <c r="Q183" t="n">
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
         <v>42</v>
       </c>
-      <c r="R183" t="n">
+      <c r="S183" t="n">
         <v>5</v>
       </c>
-      <c r="S183" t="n">
-        <v>0</v>
-      </c>
       <c r="T183" t="n">
+        <v>0</v>
+      </c>
+      <c r="U183" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11727,16 +12642,21 @@
       <c r="P184" t="n">
         <v>6</v>
       </c>
-      <c r="Q184" t="n">
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
         <v>42</v>
       </c>
-      <c r="R184" t="n">
+      <c r="S184" t="n">
         <v>4</v>
       </c>
-      <c r="S184" t="n">
-        <v>0</v>
-      </c>
       <c r="T184" t="n">
+        <v>0</v>
+      </c>
+      <c r="U184" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11787,16 +12707,21 @@
       <c r="P185" t="n">
         <v>6</v>
       </c>
-      <c r="Q185" t="n">
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
         <v>42</v>
       </c>
-      <c r="R185" t="n">
+      <c r="S185" t="n">
         <v>3</v>
       </c>
-      <c r="S185" t="n">
-        <v>0</v>
-      </c>
       <c r="T185" t="n">
+        <v>0</v>
+      </c>
+      <c r="U185" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11847,16 +12772,21 @@
       <c r="P186" t="n">
         <v>6</v>
       </c>
-      <c r="Q186" t="n">
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
         <v>42</v>
       </c>
-      <c r="R186" t="n">
-        <v>2</v>
-      </c>
       <c r="S186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T186" t="n">
+        <v>0</v>
+      </c>
+      <c r="U186" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11907,16 +12837,21 @@
       <c r="P187" t="n">
         <v>6</v>
       </c>
-      <c r="Q187" t="n">
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
         <v>42</v>
       </c>
-      <c r="R187" t="n">
-        <v>1</v>
-      </c>
       <c r="S187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T187" t="n">
+        <v>0</v>
+      </c>
+      <c r="U187" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11969,16 +12904,21 @@
       <c r="P188" t="n">
         <v>6</v>
       </c>
-      <c r="Q188" t="n">
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
         <v>41</v>
       </c>
-      <c r="R188" t="n">
+      <c r="S188" t="n">
         <v>6</v>
       </c>
-      <c r="S188" t="n">
-        <v>0</v>
-      </c>
       <c r="T188" t="n">
+        <v>0</v>
+      </c>
+      <c r="U188" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12027,16 +12967,21 @@
       <c r="P189" t="n">
         <v>6</v>
       </c>
-      <c r="Q189" t="n">
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
         <v>41</v>
       </c>
-      <c r="R189" t="n">
+      <c r="S189" t="n">
         <v>5</v>
       </c>
-      <c r="S189" t="n">
-        <v>0</v>
-      </c>
       <c r="T189" t="n">
+        <v>0</v>
+      </c>
+      <c r="U189" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12085,16 +13030,21 @@
       <c r="P190" t="n">
         <v>6</v>
       </c>
-      <c r="Q190" t="n">
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
         <v>41</v>
       </c>
-      <c r="R190" t="n">
+      <c r="S190" t="n">
         <v>4</v>
       </c>
-      <c r="S190" t="n">
-        <v>0</v>
-      </c>
       <c r="T190" t="n">
+        <v>0</v>
+      </c>
+      <c r="U190" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12143,16 +13093,21 @@
       <c r="P191" t="n">
         <v>6</v>
       </c>
-      <c r="Q191" t="n">
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
         <v>41</v>
       </c>
-      <c r="R191" t="n">
+      <c r="S191" t="n">
         <v>3</v>
       </c>
-      <c r="S191" t="n">
-        <v>0</v>
-      </c>
       <c r="T191" t="n">
+        <v>0</v>
+      </c>
+      <c r="U191" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12201,16 +13156,21 @@
       <c r="P192" t="n">
         <v>6</v>
       </c>
-      <c r="Q192" t="n">
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
         <v>41</v>
       </c>
-      <c r="R192" t="n">
-        <v>2</v>
-      </c>
       <c r="S192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T192" t="n">
+        <v>0</v>
+      </c>
+      <c r="U192" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12259,16 +13219,21 @@
       <c r="P193" t="n">
         <v>6</v>
       </c>
-      <c r="Q193" t="n">
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
         <v>41</v>
       </c>
-      <c r="R193" t="n">
-        <v>1</v>
-      </c>
       <c r="S193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T193" t="n">
+        <v>0</v>
+      </c>
+      <c r="U193" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12327,16 +13292,21 @@
       <c r="P194" t="n">
         <v>6</v>
       </c>
-      <c r="Q194" t="n">
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
         <v>47</v>
       </c>
-      <c r="R194" t="n">
+      <c r="S194" t="n">
         <v>7</v>
       </c>
-      <c r="S194" t="n">
-        <v>0</v>
-      </c>
       <c r="T194" t="n">
+        <v>0</v>
+      </c>
+      <c r="U194" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12389,16 +13359,21 @@
       <c r="P195" t="n">
         <v>6</v>
       </c>
-      <c r="Q195" t="n">
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
         <v>47</v>
       </c>
-      <c r="R195" t="n">
+      <c r="S195" t="n">
         <v>6</v>
       </c>
-      <c r="S195" t="n">
-        <v>0</v>
-      </c>
       <c r="T195" t="n">
+        <v>0</v>
+      </c>
+      <c r="U195" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12451,16 +13426,21 @@
       <c r="P196" t="n">
         <v>6</v>
       </c>
-      <c r="Q196" t="n">
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
         <v>47</v>
       </c>
-      <c r="R196" t="n">
+      <c r="S196" t="n">
         <v>5</v>
       </c>
-      <c r="S196" t="n">
-        <v>0</v>
-      </c>
       <c r="T196" t="n">
+        <v>0</v>
+      </c>
+      <c r="U196" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12513,16 +13493,21 @@
       <c r="P197" t="n">
         <v>6</v>
       </c>
-      <c r="Q197" t="n">
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
         <v>47</v>
       </c>
-      <c r="R197" t="n">
+      <c r="S197" t="n">
         <v>4</v>
       </c>
-      <c r="S197" t="n">
-        <v>0</v>
-      </c>
       <c r="T197" t="n">
+        <v>0</v>
+      </c>
+      <c r="U197" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12575,16 +13560,21 @@
       <c r="P198" t="n">
         <v>6</v>
       </c>
-      <c r="Q198" t="n">
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
         <v>47</v>
       </c>
-      <c r="R198" t="n">
+      <c r="S198" t="n">
         <v>3</v>
       </c>
-      <c r="S198" t="n">
-        <v>0</v>
-      </c>
       <c r="T198" t="n">
+        <v>0</v>
+      </c>
+      <c r="U198" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12637,16 +13627,21 @@
       <c r="P199" t="n">
         <v>6</v>
       </c>
-      <c r="Q199" t="n">
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
         <v>47</v>
       </c>
-      <c r="R199" t="n">
-        <v>2</v>
-      </c>
       <c r="S199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T199" t="n">
+        <v>0</v>
+      </c>
+      <c r="U199" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12699,16 +13694,21 @@
       <c r="P200" t="n">
         <v>6</v>
       </c>
-      <c r="Q200" t="n">
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
         <v>47</v>
       </c>
-      <c r="R200" t="n">
-        <v>1</v>
-      </c>
       <c r="S200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T200" t="n">
+        <v>0</v>
+      </c>
+      <c r="U200" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12771,16 +13771,21 @@
       <c r="P201" t="n">
         <v>6</v>
       </c>
-      <c r="Q201" t="n">
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
         <v>46</v>
       </c>
-      <c r="R201" t="n">
+      <c r="S201" t="n">
         <v>3</v>
       </c>
-      <c r="S201" t="n">
-        <v>0</v>
-      </c>
       <c r="T201" t="n">
+        <v>0</v>
+      </c>
+      <c r="U201" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12833,16 +13838,21 @@
       <c r="P202" t="n">
         <v>6</v>
       </c>
-      <c r="Q202" t="n">
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
         <v>46</v>
       </c>
-      <c r="R202" t="n">
-        <v>2</v>
-      </c>
       <c r="S202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T202" t="n">
+        <v>0</v>
+      </c>
+      <c r="U202" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12895,16 +13905,21 @@
       <c r="P203" t="n">
         <v>6</v>
       </c>
-      <c r="Q203" t="n">
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
         <v>46</v>
       </c>
-      <c r="R203" t="n">
-        <v>1</v>
-      </c>
       <c r="S203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T203" t="n">
+        <v>0</v>
+      </c>
+      <c r="U203" t="n">
         <v>8</v>
       </c>
     </row>
@@ -12959,16 +13974,21 @@
       <c r="P204" t="n">
         <v>6</v>
       </c>
-      <c r="Q204" t="n">
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
         <v>45</v>
       </c>
-      <c r="R204" t="n">
+      <c r="S204" t="n">
         <v>5</v>
       </c>
-      <c r="S204" t="n">
-        <v>0</v>
-      </c>
       <c r="T204" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" t="n">
         <v>8</v>
       </c>
     </row>
@@ -13021,16 +14041,21 @@
       <c r="P205" t="n">
         <v>6</v>
       </c>
-      <c r="Q205" t="n">
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
         <v>45</v>
       </c>
-      <c r="R205" t="n">
+      <c r="S205" t="n">
         <v>4</v>
       </c>
-      <c r="S205" t="n">
-        <v>0</v>
-      </c>
       <c r="T205" t="n">
+        <v>0</v>
+      </c>
+      <c r="U205" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13083,16 +14108,21 @@
       <c r="P206" t="n">
         <v>6</v>
       </c>
-      <c r="Q206" t="n">
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
         <v>45</v>
       </c>
-      <c r="R206" t="n">
+      <c r="S206" t="n">
         <v>3</v>
       </c>
-      <c r="S206" t="n">
-        <v>0</v>
-      </c>
       <c r="T206" t="n">
+        <v>0</v>
+      </c>
+      <c r="U206" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13145,16 +14175,21 @@
       <c r="P207" t="n">
         <v>6</v>
       </c>
-      <c r="Q207" t="n">
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
         <v>45</v>
       </c>
-      <c r="R207" t="n">
-        <v>2</v>
-      </c>
       <c r="S207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T207" t="n">
+        <v>0</v>
+      </c>
+      <c r="U207" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13207,16 +14242,21 @@
       <c r="P208" t="n">
         <v>6</v>
       </c>
-      <c r="Q208" t="n">
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
         <v>45</v>
       </c>
-      <c r="R208" t="n">
-        <v>1</v>
-      </c>
       <c r="S208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T208" t="n">
+        <v>0</v>
+      </c>
+      <c r="U208" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13271,16 +14311,21 @@
       <c r="P209" t="n">
         <v>6</v>
       </c>
-      <c r="Q209" t="n">
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
         <v>44</v>
       </c>
-      <c r="R209" t="n">
+      <c r="S209" t="n">
         <v>6</v>
       </c>
-      <c r="S209" t="n">
-        <v>0</v>
-      </c>
       <c r="T209" t="n">
+        <v>0</v>
+      </c>
+      <c r="U209" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13331,16 +14376,21 @@
       <c r="P210" t="n">
         <v>6</v>
       </c>
-      <c r="Q210" t="n">
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
         <v>44</v>
       </c>
-      <c r="R210" t="n">
+      <c r="S210" t="n">
         <v>5</v>
       </c>
-      <c r="S210" t="n">
-        <v>0</v>
-      </c>
       <c r="T210" t="n">
+        <v>0</v>
+      </c>
+      <c r="U210" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13391,16 +14441,21 @@
       <c r="P211" t="n">
         <v>6</v>
       </c>
-      <c r="Q211" t="n">
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
         <v>44</v>
       </c>
-      <c r="R211" t="n">
+      <c r="S211" t="n">
         <v>4</v>
       </c>
-      <c r="S211" t="n">
-        <v>0</v>
-      </c>
       <c r="T211" t="n">
+        <v>0</v>
+      </c>
+      <c r="U211" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13451,16 +14506,21 @@
       <c r="P212" t="n">
         <v>6</v>
       </c>
-      <c r="Q212" t="n">
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
         <v>44</v>
       </c>
-      <c r="R212" t="n">
+      <c r="S212" t="n">
         <v>3</v>
       </c>
-      <c r="S212" t="n">
-        <v>0</v>
-      </c>
       <c r="T212" t="n">
+        <v>0</v>
+      </c>
+      <c r="U212" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13511,16 +14571,21 @@
       <c r="P213" t="n">
         <v>6</v>
       </c>
-      <c r="Q213" t="n">
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
         <v>44</v>
       </c>
-      <c r="R213" t="n">
-        <v>2</v>
-      </c>
       <c r="S213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T213" t="n">
+        <v>0</v>
+      </c>
+      <c r="U213" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13571,16 +14636,21 @@
       <c r="P214" t="n">
         <v>6</v>
       </c>
-      <c r="Q214" t="n">
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
         <v>44</v>
       </c>
-      <c r="R214" t="n">
-        <v>1</v>
-      </c>
       <c r="S214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T214" t="n">
+        <v>0</v>
+      </c>
+      <c r="U214" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13641,16 +14711,21 @@
       <c r="P215" t="n">
         <v>6</v>
       </c>
-      <c r="Q215" t="n">
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
         <v>43</v>
       </c>
-      <c r="R215" t="n">
-        <v>1</v>
-      </c>
       <c r="S215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T215" t="n">
+        <v>0</v>
+      </c>
+      <c r="U215" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13709,16 +14784,21 @@
       <c r="P216" t="n">
         <v>6</v>
       </c>
-      <c r="Q216" t="n">
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
         <v>42</v>
       </c>
-      <c r="R216" t="n">
+      <c r="S216" t="n">
         <v>5</v>
       </c>
-      <c r="S216" t="n">
-        <v>0</v>
-      </c>
       <c r="T216" t="n">
+        <v>0</v>
+      </c>
+      <c r="U216" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13767,16 +14847,21 @@
       <c r="P217" t="n">
         <v>6</v>
       </c>
-      <c r="Q217" t="n">
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
         <v>42</v>
       </c>
-      <c r="R217" t="n">
+      <c r="S217" t="n">
         <v>4</v>
       </c>
-      <c r="S217" t="n">
-        <v>0</v>
-      </c>
       <c r="T217" t="n">
+        <v>0</v>
+      </c>
+      <c r="U217" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13825,16 +14910,21 @@
       <c r="P218" t="n">
         <v>6</v>
       </c>
-      <c r="Q218" t="n">
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
         <v>42</v>
       </c>
-      <c r="R218" t="n">
+      <c r="S218" t="n">
         <v>3</v>
       </c>
-      <c r="S218" t="n">
-        <v>0</v>
-      </c>
       <c r="T218" t="n">
+        <v>0</v>
+      </c>
+      <c r="U218" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13883,16 +14973,21 @@
       <c r="P219" t="n">
         <v>6</v>
       </c>
-      <c r="Q219" t="n">
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
         <v>42</v>
       </c>
-      <c r="R219" t="n">
-        <v>2</v>
-      </c>
       <c r="S219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T219" t="n">
+        <v>0</v>
+      </c>
+      <c r="U219" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13941,16 +15036,21 @@
       <c r="P220" t="n">
         <v>6</v>
       </c>
-      <c r="Q220" t="n">
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
         <v>42</v>
       </c>
-      <c r="R220" t="n">
-        <v>1</v>
-      </c>
       <c r="S220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T220" t="n">
+        <v>0</v>
+      </c>
+      <c r="U220" t="n">
         <v>7</v>
       </c>
     </row>
@@ -14011,16 +15111,21 @@
       <c r="P221" t="n">
         <v>5</v>
       </c>
-      <c r="Q221" t="n">
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
         <v>38</v>
       </c>
-      <c r="R221" t="n">
-        <v>1</v>
-      </c>
       <c r="S221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T221" t="n">
+        <v>0</v>
+      </c>
+      <c r="U221" t="n">
         <v>7</v>
       </c>
     </row>
@@ -14081,16 +15186,21 @@
       <c r="P222" t="n">
         <v>5</v>
       </c>
-      <c r="Q222" t="n">
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
         <v>37</v>
       </c>
-      <c r="R222" t="n">
+      <c r="S222" t="n">
         <v>5</v>
       </c>
-      <c r="S222" t="n">
-        <v>0</v>
-      </c>
       <c r="T222" t="n">
+        <v>0</v>
+      </c>
+      <c r="U222" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14141,16 +15251,21 @@
       <c r="P223" t="n">
         <v>5</v>
       </c>
-      <c r="Q223" t="n">
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
         <v>37</v>
       </c>
-      <c r="R223" t="n">
+      <c r="S223" t="n">
         <v>4</v>
       </c>
-      <c r="S223" t="n">
-        <v>0</v>
-      </c>
       <c r="T223" t="n">
+        <v>0</v>
+      </c>
+      <c r="U223" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14201,16 +15316,21 @@
       <c r="P224" t="n">
         <v>5</v>
       </c>
-      <c r="Q224" t="n">
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
         <v>37</v>
       </c>
-      <c r="R224" t="n">
+      <c r="S224" t="n">
         <v>3</v>
       </c>
-      <c r="S224" t="n">
-        <v>0</v>
-      </c>
       <c r="T224" t="n">
+        <v>0</v>
+      </c>
+      <c r="U224" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14261,16 +15381,21 @@
       <c r="P225" t="n">
         <v>5</v>
       </c>
-      <c r="Q225" t="n">
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
         <v>37</v>
       </c>
-      <c r="R225" t="n">
-        <v>2</v>
-      </c>
       <c r="S225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T225" t="n">
+        <v>0</v>
+      </c>
+      <c r="U225" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14321,16 +15446,21 @@
       <c r="P226" t="n">
         <v>5</v>
       </c>
-      <c r="Q226" t="n">
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
         <v>37</v>
       </c>
-      <c r="R226" t="n">
-        <v>1</v>
-      </c>
       <c r="S226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T226" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14387,16 +15517,21 @@
       <c r="P227" t="n">
         <v>5</v>
       </c>
-      <c r="Q227" t="n">
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
         <v>36</v>
       </c>
-      <c r="R227" t="n">
+      <c r="S227" t="n">
         <v>9</v>
       </c>
-      <c r="S227" t="n">
-        <v>0</v>
-      </c>
       <c r="T227" t="n">
+        <v>0</v>
+      </c>
+      <c r="U227" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14447,16 +15582,21 @@
       <c r="P228" t="n">
         <v>5</v>
       </c>
-      <c r="Q228" t="n">
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
         <v>36</v>
       </c>
-      <c r="R228" t="n">
+      <c r="S228" t="n">
         <v>8</v>
       </c>
-      <c r="S228" t="n">
-        <v>0</v>
-      </c>
       <c r="T228" t="n">
+        <v>0</v>
+      </c>
+      <c r="U228" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14507,16 +15647,21 @@
       <c r="P229" t="n">
         <v>5</v>
       </c>
-      <c r="Q229" t="n">
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
         <v>36</v>
       </c>
-      <c r="R229" t="n">
+      <c r="S229" t="n">
         <v>7</v>
       </c>
-      <c r="S229" t="n">
-        <v>0</v>
-      </c>
       <c r="T229" t="n">
+        <v>0</v>
+      </c>
+      <c r="U229" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14567,16 +15712,21 @@
       <c r="P230" t="n">
         <v>5</v>
       </c>
-      <c r="Q230" t="n">
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
         <v>36</v>
       </c>
-      <c r="R230" t="n">
+      <c r="S230" t="n">
         <v>6</v>
       </c>
-      <c r="S230" t="n">
-        <v>0</v>
-      </c>
       <c r="T230" t="n">
+        <v>0</v>
+      </c>
+      <c r="U230" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14627,16 +15777,21 @@
       <c r="P231" t="n">
         <v>5</v>
       </c>
-      <c r="Q231" t="n">
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
         <v>36</v>
       </c>
-      <c r="R231" t="n">
+      <c r="S231" t="n">
         <v>5</v>
       </c>
-      <c r="S231" t="n">
-        <v>0</v>
-      </c>
       <c r="T231" t="n">
+        <v>0</v>
+      </c>
+      <c r="U231" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14687,16 +15842,21 @@
       <c r="P232" t="n">
         <v>5</v>
       </c>
-      <c r="Q232" t="n">
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
         <v>36</v>
       </c>
-      <c r="R232" t="n">
+      <c r="S232" t="n">
         <v>4</v>
       </c>
-      <c r="S232" t="n">
-        <v>0</v>
-      </c>
       <c r="T232" t="n">
+        <v>0</v>
+      </c>
+      <c r="U232" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14747,16 +15907,21 @@
       <c r="P233" t="n">
         <v>5</v>
       </c>
-      <c r="Q233" t="n">
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
         <v>36</v>
       </c>
-      <c r="R233" t="n">
+      <c r="S233" t="n">
         <v>3</v>
       </c>
-      <c r="S233" t="n">
-        <v>0</v>
-      </c>
       <c r="T233" t="n">
+        <v>0</v>
+      </c>
+      <c r="U233" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14807,16 +15972,21 @@
       <c r="P234" t="n">
         <v>5</v>
       </c>
-      <c r="Q234" t="n">
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
         <v>36</v>
       </c>
-      <c r="R234" t="n">
-        <v>2</v>
-      </c>
       <c r="S234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T234" t="n">
+        <v>0</v>
+      </c>
+      <c r="U234" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14867,16 +16037,21 @@
       <c r="P235" t="n">
         <v>5</v>
       </c>
-      <c r="Q235" t="n">
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
         <v>36</v>
       </c>
-      <c r="R235" t="n">
-        <v>1</v>
-      </c>
       <c r="S235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T235" t="n">
+        <v>0</v>
+      </c>
+      <c r="U235" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14937,16 +16112,21 @@
       <c r="P236" t="n">
         <v>5</v>
       </c>
-      <c r="Q236" t="n">
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
         <v>35</v>
       </c>
-      <c r="R236" t="n">
-        <v>1</v>
-      </c>
       <c r="S236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T236" t="n">
+        <v>0</v>
+      </c>
+      <c r="U236" t="n">
         <v>6</v>
       </c>
     </row>
@@ -14999,16 +16179,21 @@
       <c r="P237" t="n">
         <v>5</v>
       </c>
-      <c r="Q237" t="n">
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
         <v>34</v>
       </c>
-      <c r="R237" t="n">
+      <c r="S237" t="n">
         <v>6</v>
       </c>
-      <c r="S237" t="n">
-        <v>0</v>
-      </c>
       <c r="T237" t="n">
+        <v>0</v>
+      </c>
+      <c r="U237" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15057,16 +16242,21 @@
       <c r="P238" t="n">
         <v>5</v>
       </c>
-      <c r="Q238" t="n">
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
         <v>34</v>
       </c>
-      <c r="R238" t="n">
+      <c r="S238" t="n">
         <v>5</v>
       </c>
-      <c r="S238" t="n">
-        <v>0</v>
-      </c>
       <c r="T238" t="n">
+        <v>0</v>
+      </c>
+      <c r="U238" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15115,16 +16305,21 @@
       <c r="P239" t="n">
         <v>5</v>
       </c>
-      <c r="Q239" t="n">
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
         <v>34</v>
       </c>
-      <c r="R239" t="n">
+      <c r="S239" t="n">
         <v>4</v>
       </c>
-      <c r="S239" t="n">
-        <v>0</v>
-      </c>
       <c r="T239" t="n">
+        <v>0</v>
+      </c>
+      <c r="U239" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15173,16 +16368,21 @@
       <c r="P240" t="n">
         <v>5</v>
       </c>
-      <c r="Q240" t="n">
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
         <v>34</v>
       </c>
-      <c r="R240" t="n">
+      <c r="S240" t="n">
         <v>3</v>
       </c>
-      <c r="S240" t="n">
-        <v>0</v>
-      </c>
       <c r="T240" t="n">
+        <v>0</v>
+      </c>
+      <c r="U240" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15231,16 +16431,21 @@
       <c r="P241" t="n">
         <v>5</v>
       </c>
-      <c r="Q241" t="n">
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
         <v>34</v>
       </c>
-      <c r="R241" t="n">
-        <v>2</v>
-      </c>
       <c r="S241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T241" t="n">
+        <v>0</v>
+      </c>
+      <c r="U241" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15289,16 +16494,21 @@
       <c r="P242" t="n">
         <v>5</v>
       </c>
-      <c r="Q242" t="n">
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
         <v>34</v>
       </c>
-      <c r="R242" t="n">
-        <v>1</v>
-      </c>
       <c r="S242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T242" t="n">
+        <v>0</v>
+      </c>
+      <c r="U242" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15355,16 +16565,21 @@
       <c r="P243" t="n">
         <v>4</v>
       </c>
-      <c r="Q243" t="n">
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
         <v>30</v>
       </c>
-      <c r="R243" t="n">
+      <c r="S243" t="n">
         <v>7</v>
       </c>
-      <c r="S243" t="n">
-        <v>0</v>
-      </c>
       <c r="T243" t="n">
+        <v>0</v>
+      </c>
+      <c r="U243" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15415,16 +16630,21 @@
       <c r="P244" t="n">
         <v>4</v>
       </c>
-      <c r="Q244" t="n">
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R244" t="n">
         <v>30</v>
       </c>
-      <c r="R244" t="n">
+      <c r="S244" t="n">
         <v>6</v>
       </c>
-      <c r="S244" t="n">
-        <v>0</v>
-      </c>
       <c r="T244" t="n">
+        <v>0</v>
+      </c>
+      <c r="U244" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15475,16 +16695,21 @@
       <c r="P245" t="n">
         <v>4</v>
       </c>
-      <c r="Q245" t="n">
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
         <v>30</v>
       </c>
-      <c r="R245" t="n">
+      <c r="S245" t="n">
         <v>5</v>
       </c>
-      <c r="S245" t="n">
-        <v>0</v>
-      </c>
       <c r="T245" t="n">
+        <v>0</v>
+      </c>
+      <c r="U245" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15535,16 +16760,21 @@
       <c r="P246" t="n">
         <v>4</v>
       </c>
-      <c r="Q246" t="n">
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R246" t="n">
         <v>30</v>
       </c>
-      <c r="R246" t="n">
+      <c r="S246" t="n">
         <v>4</v>
       </c>
-      <c r="S246" t="n">
-        <v>0</v>
-      </c>
       <c r="T246" t="n">
+        <v>0</v>
+      </c>
+      <c r="U246" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15595,16 +16825,21 @@
       <c r="P247" t="n">
         <v>4</v>
       </c>
-      <c r="Q247" t="n">
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R247" t="n">
         <v>30</v>
       </c>
-      <c r="R247" t="n">
+      <c r="S247" t="n">
         <v>3</v>
       </c>
-      <c r="S247" t="n">
-        <v>0</v>
-      </c>
       <c r="T247" t="n">
+        <v>0</v>
+      </c>
+      <c r="U247" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15655,16 +16890,21 @@
       <c r="P248" t="n">
         <v>4</v>
       </c>
-      <c r="Q248" t="n">
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R248" t="n">
         <v>30</v>
       </c>
-      <c r="R248" t="n">
-        <v>2</v>
-      </c>
       <c r="S248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T248" t="n">
+        <v>0</v>
+      </c>
+      <c r="U248" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15715,16 +16955,21 @@
       <c r="P249" t="n">
         <v>4</v>
       </c>
-      <c r="Q249" t="n">
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R249" t="n">
         <v>30</v>
       </c>
-      <c r="R249" t="n">
-        <v>1</v>
-      </c>
       <c r="S249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T249" t="n">
+        <v>0</v>
+      </c>
+      <c r="U249" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15785,16 +17030,21 @@
       <c r="P250" t="n">
         <v>4</v>
       </c>
-      <c r="Q250" t="n">
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R250" t="n">
         <v>29</v>
       </c>
-      <c r="R250" t="n">
+      <c r="S250" t="n">
         <v>3</v>
       </c>
-      <c r="S250" t="n">
-        <v>0</v>
-      </c>
       <c r="T250" t="n">
+        <v>0</v>
+      </c>
+      <c r="U250" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15845,16 +17095,21 @@
       <c r="P251" t="n">
         <v>4</v>
       </c>
-      <c r="Q251" t="n">
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R251" t="n">
         <v>29</v>
       </c>
-      <c r="R251" t="n">
-        <v>2</v>
-      </c>
       <c r="S251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T251" t="n">
+        <v>0</v>
+      </c>
+      <c r="U251" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15905,16 +17160,21 @@
       <c r="P252" t="n">
         <v>4</v>
       </c>
-      <c r="Q252" t="n">
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R252" t="n">
         <v>29</v>
       </c>
-      <c r="R252" t="n">
-        <v>1</v>
-      </c>
       <c r="S252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T252" t="n">
+        <v>0</v>
+      </c>
+      <c r="U252" t="n">
         <v>6</v>
       </c>
     </row>
@@ -15975,16 +17235,21 @@
       <c r="P253" t="n">
         <v>4</v>
       </c>
-      <c r="Q253" t="n">
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R253" t="n">
         <v>28</v>
       </c>
-      <c r="R253" t="n">
-        <v>2</v>
-      </c>
       <c r="S253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T253" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" t="n">
         <v>6</v>
       </c>
     </row>
@@ -16035,16 +17300,21 @@
       <c r="P254" t="n">
         <v>4</v>
       </c>
-      <c r="Q254" t="n">
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R254" t="n">
         <v>28</v>
       </c>
-      <c r="R254" t="n">
-        <v>1</v>
-      </c>
       <c r="S254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T254" t="n">
+        <v>0</v>
+      </c>
+      <c r="U254" t="n">
         <v>6</v>
       </c>
     </row>
@@ -16097,16 +17367,21 @@
       <c r="P255" t="n">
         <v>4</v>
       </c>
-      <c r="Q255" t="n">
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R255" t="n">
         <v>27</v>
       </c>
-      <c r="R255" t="n">
+      <c r="S255" t="n">
         <v>4</v>
       </c>
-      <c r="S255" t="n">
-        <v>0</v>
-      </c>
       <c r="T255" t="n">
+        <v>0</v>
+      </c>
+      <c r="U255" t="n">
         <v>6</v>
       </c>
     </row>
@@ -16155,16 +17430,21 @@
       <c r="P256" t="n">
         <v>4</v>
       </c>
-      <c r="Q256" t="n">
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R256" t="n">
         <v>27</v>
       </c>
-      <c r="R256" t="n">
+      <c r="S256" t="n">
         <v>3</v>
       </c>
-      <c r="S256" t="n">
-        <v>0</v>
-      </c>
       <c r="T256" t="n">
+        <v>0</v>
+      </c>
+      <c r="U256" t="n">
         <v>6</v>
       </c>
     </row>
@@ -16213,16 +17493,21 @@
       <c r="P257" t="n">
         <v>4</v>
       </c>
-      <c r="Q257" t="n">
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R257" t="n">
         <v>27</v>
       </c>
-      <c r="R257" t="n">
-        <v>2</v>
-      </c>
       <c r="S257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T257" t="n">
+        <v>0</v>
+      </c>
+      <c r="U257" t="n">
         <v>6</v>
       </c>
     </row>
@@ -16271,16 +17556,21 @@
       <c r="P258" t="n">
         <v>4</v>
       </c>
-      <c r="Q258" t="n">
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R258" t="n">
         <v>27</v>
       </c>
-      <c r="R258" t="n">
-        <v>1</v>
-      </c>
       <c r="S258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T258" t="n">
+        <v>0</v>
+      </c>
+      <c r="U258" t="n">
         <v>6</v>
       </c>
     </row>
@@ -16339,16 +17629,21 @@
       <c r="P259" t="n">
         <v>6</v>
       </c>
-      <c r="Q259" t="n">
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R259" t="n">
         <v>52</v>
       </c>
-      <c r="R259" t="n">
-        <v>1</v>
-      </c>
       <c r="S259" t="n">
+        <v>1</v>
+      </c>
+      <c r="T259" t="n">
         <v>6</v>
       </c>
-      <c r="T259" t="n">
+      <c r="U259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16407,16 +17702,21 @@
       <c r="P260" t="n">
         <v>6</v>
       </c>
-      <c r="Q260" t="n">
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R260" t="n">
         <v>51</v>
       </c>
-      <c r="R260" t="n">
+      <c r="S260" t="n">
         <v>4</v>
       </c>
-      <c r="S260" t="n">
+      <c r="T260" t="n">
         <v>6</v>
       </c>
-      <c r="T260" t="n">
+      <c r="U260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16465,16 +17765,21 @@
       <c r="P261" t="n">
         <v>6</v>
       </c>
-      <c r="Q261" t="n">
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R261" t="n">
         <v>51</v>
       </c>
-      <c r="R261" t="n">
+      <c r="S261" t="n">
         <v>3</v>
       </c>
-      <c r="S261" t="n">
+      <c r="T261" t="n">
         <v>6</v>
       </c>
-      <c r="T261" t="n">
+      <c r="U261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16523,16 +17828,21 @@
       <c r="P262" t="n">
         <v>6</v>
       </c>
-      <c r="Q262" t="n">
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R262" t="n">
         <v>51</v>
       </c>
-      <c r="R262" t="n">
-        <v>2</v>
-      </c>
       <c r="S262" t="n">
+        <v>2</v>
+      </c>
+      <c r="T262" t="n">
         <v>6</v>
       </c>
-      <c r="T262" t="n">
+      <c r="U262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16581,16 +17891,21 @@
       <c r="P263" t="n">
         <v>6</v>
       </c>
-      <c r="Q263" t="n">
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R263" t="n">
         <v>51</v>
       </c>
-      <c r="R263" t="n">
-        <v>1</v>
-      </c>
       <c r="S263" t="n">
+        <v>1</v>
+      </c>
+      <c r="T263" t="n">
         <v>6</v>
       </c>
-      <c r="T263" t="n">
+      <c r="U263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16649,16 +17964,21 @@
       <c r="P264" t="n">
         <v>6</v>
       </c>
-      <c r="Q264" t="n">
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R264" t="n">
         <v>50</v>
       </c>
-      <c r="R264" t="n">
+      <c r="S264" t="n">
         <v>4</v>
       </c>
-      <c r="S264" t="n">
+      <c r="T264" t="n">
         <v>6</v>
       </c>
-      <c r="T264" t="n">
+      <c r="U264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16707,16 +18027,21 @@
       <c r="P265" t="n">
         <v>6</v>
       </c>
-      <c r="Q265" t="n">
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R265" t="n">
         <v>50</v>
       </c>
-      <c r="R265" t="n">
+      <c r="S265" t="n">
         <v>3</v>
       </c>
-      <c r="S265" t="n">
+      <c r="T265" t="n">
         <v>6</v>
       </c>
-      <c r="T265" t="n">
+      <c r="U265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16765,16 +18090,21 @@
       <c r="P266" t="n">
         <v>6</v>
       </c>
-      <c r="Q266" t="n">
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R266" t="n">
         <v>50</v>
       </c>
-      <c r="R266" t="n">
-        <v>2</v>
-      </c>
       <c r="S266" t="n">
+        <v>2</v>
+      </c>
+      <c r="T266" t="n">
         <v>6</v>
       </c>
-      <c r="T266" t="n">
+      <c r="U266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16823,16 +18153,21 @@
       <c r="P267" t="n">
         <v>6</v>
       </c>
-      <c r="Q267" t="n">
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R267" t="n">
         <v>50</v>
       </c>
-      <c r="R267" t="n">
-        <v>1</v>
-      </c>
       <c r="S267" t="n">
+        <v>1</v>
+      </c>
+      <c r="T267" t="n">
         <v>6</v>
       </c>
-      <c r="T267" t="n">
+      <c r="U267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16891,16 +18226,21 @@
       <c r="P268" t="n">
         <v>5</v>
       </c>
-      <c r="Q268" t="n">
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R268" t="n">
         <v>44</v>
       </c>
-      <c r="R268" t="n">
-        <v>1</v>
-      </c>
       <c r="S268" t="n">
+        <v>1</v>
+      </c>
+      <c r="T268" t="n">
         <v>6</v>
       </c>
-      <c r="T268" t="n">
+      <c r="U268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16959,16 +18299,21 @@
       <c r="P269" t="n">
         <v>5</v>
       </c>
-      <c r="Q269" t="n">
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R269" t="n">
         <v>43</v>
-      </c>
-      <c r="R269" t="n">
-        <v>6</v>
       </c>
       <c r="S269" t="n">
         <v>6</v>
       </c>
       <c r="T269" t="n">
+        <v>6</v>
+      </c>
+      <c r="U269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17017,16 +18362,21 @@
       <c r="P270" t="n">
         <v>5</v>
       </c>
-      <c r="Q270" t="n">
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R270" t="n">
         <v>43</v>
       </c>
-      <c r="R270" t="n">
+      <c r="S270" t="n">
         <v>5</v>
       </c>
-      <c r="S270" t="n">
+      <c r="T270" t="n">
         <v>6</v>
       </c>
-      <c r="T270" t="n">
+      <c r="U270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17075,16 +18425,21 @@
       <c r="P271" t="n">
         <v>5</v>
       </c>
-      <c r="Q271" t="n">
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R271" t="n">
         <v>43</v>
       </c>
-      <c r="R271" t="n">
+      <c r="S271" t="n">
         <v>4</v>
       </c>
-      <c r="S271" t="n">
+      <c r="T271" t="n">
         <v>6</v>
       </c>
-      <c r="T271" t="n">
+      <c r="U271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17133,16 +18488,21 @@
       <c r="P272" t="n">
         <v>5</v>
       </c>
-      <c r="Q272" t="n">
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R272" t="n">
         <v>43</v>
       </c>
-      <c r="R272" t="n">
+      <c r="S272" t="n">
         <v>3</v>
       </c>
-      <c r="S272" t="n">
+      <c r="T272" t="n">
         <v>6</v>
       </c>
-      <c r="T272" t="n">
+      <c r="U272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17191,16 +18551,21 @@
       <c r="P273" t="n">
         <v>5</v>
       </c>
-      <c r="Q273" t="n">
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R273" t="n">
         <v>43</v>
       </c>
-      <c r="R273" t="n">
-        <v>2</v>
-      </c>
       <c r="S273" t="n">
+        <v>2</v>
+      </c>
+      <c r="T273" t="n">
         <v>6</v>
       </c>
-      <c r="T273" t="n">
+      <c r="U273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17249,16 +18614,21 @@
       <c r="P274" t="n">
         <v>5</v>
       </c>
-      <c r="Q274" t="n">
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R274" t="n">
         <v>43</v>
       </c>
-      <c r="R274" t="n">
-        <v>1</v>
-      </c>
       <c r="S274" t="n">
+        <v>1</v>
+      </c>
+      <c r="T274" t="n">
         <v>6</v>
       </c>
-      <c r="T274" t="n">
+      <c r="U274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17315,16 +18685,21 @@
       <c r="P275" t="n">
         <v>5</v>
       </c>
-      <c r="Q275" t="n">
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R275" t="n">
         <v>42</v>
       </c>
-      <c r="R275" t="n">
-        <v>1</v>
-      </c>
       <c r="S275" t="n">
+        <v>1</v>
+      </c>
+      <c r="T275" t="n">
         <v>5</v>
       </c>
-      <c r="T275" t="n">
+      <c r="U275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17379,16 +18754,21 @@
       <c r="P276" t="n">
         <v>5</v>
       </c>
-      <c r="Q276" t="n">
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R276" t="n">
         <v>41</v>
       </c>
-      <c r="R276" t="n">
+      <c r="S276" t="n">
         <v>4</v>
       </c>
-      <c r="S276" t="n">
+      <c r="T276" t="n">
         <v>5</v>
       </c>
-      <c r="T276" t="n">
+      <c r="U276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17437,16 +18817,21 @@
       <c r="P277" t="n">
         <v>5</v>
       </c>
-      <c r="Q277" t="n">
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R277" t="n">
         <v>41</v>
       </c>
-      <c r="R277" t="n">
+      <c r="S277" t="n">
         <v>3</v>
       </c>
-      <c r="S277" t="n">
+      <c r="T277" t="n">
         <v>5</v>
       </c>
-      <c r="T277" t="n">
+      <c r="U277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17495,16 +18880,21 @@
       <c r="P278" t="n">
         <v>5</v>
       </c>
-      <c r="Q278" t="n">
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R278" t="n">
         <v>41</v>
       </c>
-      <c r="R278" t="n">
-        <v>2</v>
-      </c>
       <c r="S278" t="n">
+        <v>2</v>
+      </c>
+      <c r="T278" t="n">
         <v>5</v>
       </c>
-      <c r="T278" t="n">
+      <c r="U278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17553,16 +18943,21 @@
       <c r="P279" t="n">
         <v>5</v>
       </c>
-      <c r="Q279" t="n">
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R279" t="n">
         <v>41</v>
       </c>
-      <c r="R279" t="n">
-        <v>1</v>
-      </c>
       <c r="S279" t="n">
+        <v>1</v>
+      </c>
+      <c r="T279" t="n">
         <v>5</v>
       </c>
-      <c r="T279" t="n">
+      <c r="U279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17619,16 +19014,21 @@
       <c r="P280" t="n">
         <v>8</v>
       </c>
-      <c r="Q280" t="n">
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R280" t="n">
         <v>74</v>
       </c>
-      <c r="R280" t="n">
+      <c r="S280" t="n">
         <v>5</v>
       </c>
-      <c r="S280" t="n">
+      <c r="T280" t="n">
         <v>9</v>
       </c>
-      <c r="T280" t="n">
+      <c r="U280" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17685,16 +19085,21 @@
       <c r="P281" t="n">
         <v>8</v>
       </c>
-      <c r="Q281" t="n">
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
         <v>74</v>
       </c>
-      <c r="R281" t="n">
+      <c r="S281" t="n">
         <v>5</v>
       </c>
-      <c r="S281" t="n">
+      <c r="T281" t="n">
         <v>9</v>
       </c>
-      <c r="T281" t="n">
+      <c r="U281" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17745,16 +19150,21 @@
       <c r="P282" t="n">
         <v>8</v>
       </c>
-      <c r="Q282" t="n">
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R282" t="n">
         <v>74</v>
       </c>
-      <c r="R282" t="n">
+      <c r="S282" t="n">
         <v>4</v>
       </c>
-      <c r="S282" t="n">
+      <c r="T282" t="n">
         <v>9</v>
       </c>
-      <c r="T282" t="n">
+      <c r="U282" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17805,16 +19215,21 @@
       <c r="P283" t="n">
         <v>8</v>
       </c>
-      <c r="Q283" t="n">
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R283" t="n">
         <v>74</v>
       </c>
-      <c r="R283" t="n">
+      <c r="S283" t="n">
         <v>3</v>
       </c>
-      <c r="S283" t="n">
+      <c r="T283" t="n">
         <v>9</v>
       </c>
-      <c r="T283" t="n">
+      <c r="U283" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17865,16 +19280,21 @@
       <c r="P284" t="n">
         <v>8</v>
       </c>
-      <c r="Q284" t="n">
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
         <v>74</v>
       </c>
-      <c r="R284" t="n">
-        <v>2</v>
-      </c>
       <c r="S284" t="n">
+        <v>2</v>
+      </c>
+      <c r="T284" t="n">
         <v>9</v>
       </c>
-      <c r="T284" t="n">
+      <c r="U284" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17925,16 +19345,21 @@
       <c r="P285" t="n">
         <v>8</v>
       </c>
-      <c r="Q285" t="n">
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
         <v>74</v>
       </c>
-      <c r="R285" t="n">
-        <v>1</v>
-      </c>
       <c r="S285" t="n">
+        <v>1</v>
+      </c>
+      <c r="T285" t="n">
         <v>9</v>
       </c>
-      <c r="T285" t="n">
+      <c r="U285" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17995,16 +19420,21 @@
       <c r="P286" t="n">
         <v>8</v>
       </c>
-      <c r="Q286" t="n">
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R286" t="n">
         <v>73</v>
       </c>
-      <c r="R286" t="n">
+      <c r="S286" t="n">
         <v>4</v>
       </c>
-      <c r="S286" t="n">
+      <c r="T286" t="n">
         <v>8</v>
       </c>
-      <c r="T286" t="n">
+      <c r="U286" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18055,16 +19485,21 @@
       <c r="P287" t="n">
         <v>8</v>
       </c>
-      <c r="Q287" t="n">
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
         <v>73</v>
       </c>
-      <c r="R287" t="n">
+      <c r="S287" t="n">
         <v>3</v>
       </c>
-      <c r="S287" t="n">
+      <c r="T287" t="n">
         <v>8</v>
       </c>
-      <c r="T287" t="n">
+      <c r="U287" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18115,16 +19550,21 @@
       <c r="P288" t="n">
         <v>8</v>
       </c>
-      <c r="Q288" t="n">
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
         <v>73</v>
       </c>
-      <c r="R288" t="n">
-        <v>2</v>
-      </c>
       <c r="S288" t="n">
+        <v>2</v>
+      </c>
+      <c r="T288" t="n">
         <v>8</v>
       </c>
-      <c r="T288" t="n">
+      <c r="U288" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18175,16 +19615,21 @@
       <c r="P289" t="n">
         <v>8</v>
       </c>
-      <c r="Q289" t="n">
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R289" t="n">
         <v>73</v>
       </c>
-      <c r="R289" t="n">
-        <v>1</v>
-      </c>
       <c r="S289" t="n">
+        <v>1</v>
+      </c>
+      <c r="T289" t="n">
         <v>8</v>
       </c>
-      <c r="T289" t="n">
+      <c r="U289" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18245,16 +19690,21 @@
       <c r="P290" t="n">
         <v>8</v>
       </c>
-      <c r="Q290" t="n">
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R290" t="n">
         <v>72</v>
       </c>
-      <c r="R290" t="n">
-        <v>1</v>
-      </c>
       <c r="S290" t="n">
+        <v>1</v>
+      </c>
+      <c r="T290" t="n">
         <v>8</v>
       </c>
-      <c r="T290" t="n">
+      <c r="U290" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18315,16 +19765,21 @@
       <c r="P291" t="n">
         <v>8</v>
       </c>
-      <c r="Q291" t="n">
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R291" t="n">
         <v>71</v>
       </c>
-      <c r="R291" t="n">
+      <c r="S291" t="n">
         <v>5</v>
       </c>
-      <c r="S291" t="n">
+      <c r="T291" t="n">
         <v>7</v>
       </c>
-      <c r="T291" t="n">
+      <c r="U291" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18375,16 +19830,21 @@
       <c r="P292" t="n">
         <v>8</v>
       </c>
-      <c r="Q292" t="n">
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
         <v>71</v>
       </c>
-      <c r="R292" t="n">
+      <c r="S292" t="n">
         <v>4</v>
       </c>
-      <c r="S292" t="n">
+      <c r="T292" t="n">
         <v>7</v>
       </c>
-      <c r="T292" t="n">
+      <c r="U292" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18435,16 +19895,21 @@
       <c r="P293" t="n">
         <v>8</v>
       </c>
-      <c r="Q293" t="n">
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R293" t="n">
         <v>71</v>
       </c>
-      <c r="R293" t="n">
+      <c r="S293" t="n">
         <v>3</v>
       </c>
-      <c r="S293" t="n">
+      <c r="T293" t="n">
         <v>7</v>
       </c>
-      <c r="T293" t="n">
+      <c r="U293" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18495,16 +19960,21 @@
       <c r="P294" t="n">
         <v>8</v>
       </c>
-      <c r="Q294" t="n">
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R294" t="n">
         <v>71</v>
       </c>
-      <c r="R294" t="n">
-        <v>2</v>
-      </c>
       <c r="S294" t="n">
+        <v>2</v>
+      </c>
+      <c r="T294" t="n">
         <v>7</v>
       </c>
-      <c r="T294" t="n">
+      <c r="U294" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18555,16 +20025,21 @@
       <c r="P295" t="n">
         <v>8</v>
       </c>
-      <c r="Q295" t="n">
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R295" t="n">
         <v>71</v>
       </c>
-      <c r="R295" t="n">
-        <v>1</v>
-      </c>
       <c r="S295" t="n">
+        <v>1</v>
+      </c>
+      <c r="T295" t="n">
         <v>7</v>
       </c>
-      <c r="T295" t="n">
+      <c r="U295" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18625,16 +20100,21 @@
       <c r="P296" t="n">
         <v>8</v>
       </c>
-      <c r="Q296" t="n">
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
         <v>70</v>
       </c>
-      <c r="R296" t="n">
+      <c r="S296" t="n">
         <v>4</v>
       </c>
-      <c r="S296" t="n">
+      <c r="T296" t="n">
         <v>7</v>
       </c>
-      <c r="T296" t="n">
+      <c r="U296" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18685,16 +20165,21 @@
       <c r="P297" t="n">
         <v>8</v>
       </c>
-      <c r="Q297" t="n">
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
         <v>70</v>
       </c>
-      <c r="R297" t="n">
+      <c r="S297" t="n">
         <v>3</v>
       </c>
-      <c r="S297" t="n">
+      <c r="T297" t="n">
         <v>7</v>
       </c>
-      <c r="T297" t="n">
+      <c r="U297" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18745,16 +20230,21 @@
       <c r="P298" t="n">
         <v>8</v>
       </c>
-      <c r="Q298" t="n">
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
         <v>70</v>
       </c>
-      <c r="R298" t="n">
-        <v>2</v>
-      </c>
       <c r="S298" t="n">
+        <v>2</v>
+      </c>
+      <c r="T298" t="n">
         <v>7</v>
       </c>
-      <c r="T298" t="n">
+      <c r="U298" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18805,16 +20295,21 @@
       <c r="P299" t="n">
         <v>8</v>
       </c>
-      <c r="Q299" t="n">
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
         <v>70</v>
       </c>
-      <c r="R299" t="n">
-        <v>1</v>
-      </c>
       <c r="S299" t="n">
+        <v>1</v>
+      </c>
+      <c r="T299" t="n">
         <v>7</v>
       </c>
-      <c r="T299" t="n">
+      <c r="U299" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18873,16 +20368,21 @@
       <c r="P300" t="n">
         <v>8</v>
       </c>
-      <c r="Q300" t="n">
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
         <v>69</v>
-      </c>
-      <c r="R300" t="n">
-        <v>7</v>
       </c>
       <c r="S300" t="n">
         <v>7</v>
       </c>
       <c r="T300" t="n">
+        <v>7</v>
+      </c>
+      <c r="U300" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18931,16 +20431,21 @@
       <c r="P301" t="n">
         <v>8</v>
       </c>
-      <c r="Q301" t="n">
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R301" t="n">
         <v>69</v>
       </c>
-      <c r="R301" t="n">
+      <c r="S301" t="n">
         <v>6</v>
       </c>
-      <c r="S301" t="n">
+      <c r="T301" t="n">
         <v>7</v>
       </c>
-      <c r="T301" t="n">
+      <c r="U301" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18989,16 +20494,21 @@
       <c r="P302" t="n">
         <v>8</v>
       </c>
-      <c r="Q302" t="n">
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
         <v>69</v>
       </c>
-      <c r="R302" t="n">
+      <c r="S302" t="n">
         <v>5</v>
       </c>
-      <c r="S302" t="n">
+      <c r="T302" t="n">
         <v>7</v>
       </c>
-      <c r="T302" t="n">
+      <c r="U302" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19047,16 +20557,21 @@
       <c r="P303" t="n">
         <v>8</v>
       </c>
-      <c r="Q303" t="n">
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R303" t="n">
         <v>69</v>
       </c>
-      <c r="R303" t="n">
+      <c r="S303" t="n">
         <v>4</v>
       </c>
-      <c r="S303" t="n">
+      <c r="T303" t="n">
         <v>7</v>
       </c>
-      <c r="T303" t="n">
+      <c r="U303" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19105,16 +20620,21 @@
       <c r="P304" t="n">
         <v>8</v>
       </c>
-      <c r="Q304" t="n">
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R304" t="n">
         <v>69</v>
       </c>
-      <c r="R304" t="n">
+      <c r="S304" t="n">
         <v>3</v>
       </c>
-      <c r="S304" t="n">
+      <c r="T304" t="n">
         <v>7</v>
       </c>
-      <c r="T304" t="n">
+      <c r="U304" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19163,16 +20683,21 @@
       <c r="P305" t="n">
         <v>8</v>
       </c>
-      <c r="Q305" t="n">
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R305" t="n">
         <v>69</v>
       </c>
-      <c r="R305" t="n">
-        <v>2</v>
-      </c>
       <c r="S305" t="n">
+        <v>2</v>
+      </c>
+      <c r="T305" t="n">
         <v>7</v>
       </c>
-      <c r="T305" t="n">
+      <c r="U305" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19221,16 +20746,21 @@
       <c r="P306" t="n">
         <v>8</v>
       </c>
-      <c r="Q306" t="n">
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R306" t="n">
         <v>69</v>
       </c>
-      <c r="R306" t="n">
-        <v>1</v>
-      </c>
       <c r="S306" t="n">
+        <v>1</v>
+      </c>
+      <c r="T306" t="n">
         <v>7</v>
       </c>
-      <c r="T306" t="n">
+      <c r="U306" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19287,16 +20817,21 @@
       <c r="P307" t="n">
         <v>8</v>
       </c>
-      <c r="Q307" t="n">
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R307" t="n">
         <v>68</v>
       </c>
-      <c r="R307" t="n">
+      <c r="S307" t="n">
         <v>5</v>
       </c>
-      <c r="S307" t="n">
+      <c r="T307" t="n">
         <v>6</v>
       </c>
-      <c r="T307" t="n">
+      <c r="U307" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19345,16 +20880,21 @@
       <c r="P308" t="n">
         <v>8</v>
       </c>
-      <c r="Q308" t="n">
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R308" t="n">
         <v>68</v>
       </c>
-      <c r="R308" t="n">
+      <c r="S308" t="n">
         <v>4</v>
       </c>
-      <c r="S308" t="n">
+      <c r="T308" t="n">
         <v>6</v>
       </c>
-      <c r="T308" t="n">
+      <c r="U308" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19403,16 +20943,21 @@
       <c r="P309" t="n">
         <v>8</v>
       </c>
-      <c r="Q309" t="n">
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R309" t="n">
         <v>68</v>
       </c>
-      <c r="R309" t="n">
+      <c r="S309" t="n">
         <v>3</v>
       </c>
-      <c r="S309" t="n">
+      <c r="T309" t="n">
         <v>6</v>
       </c>
-      <c r="T309" t="n">
+      <c r="U309" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19461,16 +21006,21 @@
       <c r="P310" t="n">
         <v>8</v>
       </c>
-      <c r="Q310" t="n">
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R310" t="n">
         <v>68</v>
       </c>
-      <c r="R310" t="n">
-        <v>2</v>
-      </c>
       <c r="S310" t="n">
+        <v>2</v>
+      </c>
+      <c r="T310" t="n">
         <v>6</v>
       </c>
-      <c r="T310" t="n">
+      <c r="U310" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19519,16 +21069,21 @@
       <c r="P311" t="n">
         <v>8</v>
       </c>
-      <c r="Q311" t="n">
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R311" t="n">
         <v>68</v>
       </c>
-      <c r="R311" t="n">
-        <v>1</v>
-      </c>
       <c r="S311" t="n">
+        <v>1</v>
+      </c>
+      <c r="T311" t="n">
         <v>6</v>
       </c>
-      <c r="T311" t="n">
+      <c r="U311" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19593,16 +21148,21 @@
       <c r="P312" t="n">
         <v>7</v>
       </c>
-      <c r="Q312" t="n">
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R312" t="n">
         <v>64</v>
       </c>
-      <c r="R312" t="n">
+      <c r="S312" t="n">
         <v>3</v>
       </c>
-      <c r="S312" t="n">
+      <c r="T312" t="n">
         <v>6</v>
       </c>
-      <c r="T312" t="n">
+      <c r="U312" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19657,16 +21217,21 @@
       <c r="P313" t="n">
         <v>7</v>
       </c>
-      <c r="Q313" t="n">
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R313" t="n">
         <v>64</v>
       </c>
-      <c r="R313" t="n">
-        <v>2</v>
-      </c>
       <c r="S313" t="n">
+        <v>2</v>
+      </c>
+      <c r="T313" t="n">
         <v>6</v>
       </c>
-      <c r="T313" t="n">
+      <c r="U313" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19721,16 +21286,21 @@
       <c r="P314" t="n">
         <v>7</v>
       </c>
-      <c r="Q314" t="n">
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R314" t="n">
         <v>64</v>
       </c>
-      <c r="R314" t="n">
-        <v>1</v>
-      </c>
       <c r="S314" t="n">
+        <v>1</v>
+      </c>
+      <c r="T314" t="n">
         <v>6</v>
       </c>
-      <c r="T314" t="n">
+      <c r="U314" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19791,16 +21361,21 @@
       <c r="P315" t="n">
         <v>7</v>
       </c>
-      <c r="Q315" t="n">
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R315" t="n">
         <v>57</v>
       </c>
-      <c r="R315" t="n">
+      <c r="S315" t="n">
         <v>6</v>
       </c>
-      <c r="S315" t="n">
+      <c r="T315" t="n">
         <v>4</v>
       </c>
-      <c r="T315" t="n">
+      <c r="U315" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19851,16 +21426,21 @@
       <c r="P316" t="n">
         <v>7</v>
       </c>
-      <c r="Q316" t="n">
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R316" t="n">
         <v>57</v>
       </c>
-      <c r="R316" t="n">
+      <c r="S316" t="n">
         <v>5</v>
       </c>
-      <c r="S316" t="n">
+      <c r="T316" t="n">
         <v>4</v>
       </c>
-      <c r="T316" t="n">
+      <c r="U316" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19911,16 +21491,21 @@
       <c r="P317" t="n">
         <v>7</v>
       </c>
-      <c r="Q317" t="n">
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R317" t="n">
         <v>57</v>
-      </c>
-      <c r="R317" t="n">
-        <v>4</v>
       </c>
       <c r="S317" t="n">
         <v>4</v>
       </c>
       <c r="T317" t="n">
+        <v>4</v>
+      </c>
+      <c r="U317" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19971,16 +21556,21 @@
       <c r="P318" t="n">
         <v>7</v>
       </c>
-      <c r="Q318" t="n">
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R318" t="n">
         <v>57</v>
       </c>
-      <c r="R318" t="n">
+      <c r="S318" t="n">
         <v>3</v>
       </c>
-      <c r="S318" t="n">
+      <c r="T318" t="n">
         <v>4</v>
       </c>
-      <c r="T318" t="n">
+      <c r="U318" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20031,16 +21621,21 @@
       <c r="P319" t="n">
         <v>7</v>
       </c>
-      <c r="Q319" t="n">
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R319" t="n">
         <v>57</v>
       </c>
-      <c r="R319" t="n">
-        <v>2</v>
-      </c>
       <c r="S319" t="n">
+        <v>2</v>
+      </c>
+      <c r="T319" t="n">
         <v>4</v>
       </c>
-      <c r="T319" t="n">
+      <c r="U319" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20091,16 +21686,21 @@
       <c r="P320" t="n">
         <v>7</v>
       </c>
-      <c r="Q320" t="n">
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R320" t="n">
         <v>57</v>
       </c>
-      <c r="R320" t="n">
-        <v>1</v>
-      </c>
       <c r="S320" t="n">
+        <v>1</v>
+      </c>
+      <c r="T320" t="n">
         <v>4</v>
       </c>
-      <c r="T320" t="n">
+      <c r="U320" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20161,16 +21761,21 @@
       <c r="P321" t="n">
         <v>7</v>
       </c>
-      <c r="Q321" t="n">
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R321" t="n">
         <v>56</v>
       </c>
-      <c r="R321" t="n">
+      <c r="S321" t="n">
         <v>6</v>
       </c>
-      <c r="S321" t="n">
+      <c r="T321" t="n">
         <v>4</v>
       </c>
-      <c r="T321" t="n">
+      <c r="U321" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20221,16 +21826,21 @@
       <c r="P322" t="n">
         <v>7</v>
       </c>
-      <c r="Q322" t="n">
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R322" t="n">
         <v>56</v>
       </c>
-      <c r="R322" t="n">
+      <c r="S322" t="n">
         <v>5</v>
       </c>
-      <c r="S322" t="n">
+      <c r="T322" t="n">
         <v>4</v>
       </c>
-      <c r="T322" t="n">
+      <c r="U322" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20281,16 +21891,21 @@
       <c r="P323" t="n">
         <v>7</v>
       </c>
-      <c r="Q323" t="n">
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R323" t="n">
         <v>56</v>
-      </c>
-      <c r="R323" t="n">
-        <v>4</v>
       </c>
       <c r="S323" t="n">
         <v>4</v>
       </c>
       <c r="T323" t="n">
+        <v>4</v>
+      </c>
+      <c r="U323" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20341,16 +21956,21 @@
       <c r="P324" t="n">
         <v>7</v>
       </c>
-      <c r="Q324" t="n">
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R324" t="n">
         <v>56</v>
       </c>
-      <c r="R324" t="n">
+      <c r="S324" t="n">
         <v>3</v>
       </c>
-      <c r="S324" t="n">
+      <c r="T324" t="n">
         <v>4</v>
       </c>
-      <c r="T324" t="n">
+      <c r="U324" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20401,16 +22021,21 @@
       <c r="P325" t="n">
         <v>7</v>
       </c>
-      <c r="Q325" t="n">
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R325" t="n">
         <v>56</v>
       </c>
-      <c r="R325" t="n">
-        <v>2</v>
-      </c>
       <c r="S325" t="n">
+        <v>2</v>
+      </c>
+      <c r="T325" t="n">
         <v>4</v>
       </c>
-      <c r="T325" t="n">
+      <c r="U325" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20461,16 +22086,21 @@
       <c r="P326" t="n">
         <v>7</v>
       </c>
-      <c r="Q326" t="n">
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R326" t="n">
         <v>56</v>
       </c>
-      <c r="R326" t="n">
-        <v>1</v>
-      </c>
       <c r="S326" t="n">
+        <v>1</v>
+      </c>
+      <c r="T326" t="n">
         <v>4</v>
       </c>
-      <c r="T326" t="n">
+      <c r="U326" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20531,16 +22161,21 @@
       <c r="P327" t="n">
         <v>7</v>
       </c>
-      <c r="Q327" t="n">
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R327" t="n">
         <v>55</v>
       </c>
-      <c r="R327" t="n">
+      <c r="S327" t="n">
         <v>5</v>
       </c>
-      <c r="S327" t="n">
+      <c r="T327" t="n">
         <v>4</v>
       </c>
-      <c r="T327" t="n">
+      <c r="U327" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20591,16 +22226,21 @@
       <c r="P328" t="n">
         <v>7</v>
       </c>
-      <c r="Q328" t="n">
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R328" t="n">
         <v>55</v>
-      </c>
-      <c r="R328" t="n">
-        <v>4</v>
       </c>
       <c r="S328" t="n">
         <v>4</v>
       </c>
       <c r="T328" t="n">
+        <v>4</v>
+      </c>
+      <c r="U328" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20651,16 +22291,21 @@
       <c r="P329" t="n">
         <v>7</v>
       </c>
-      <c r="Q329" t="n">
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R329" t="n">
         <v>55</v>
       </c>
-      <c r="R329" t="n">
+      <c r="S329" t="n">
         <v>3</v>
       </c>
-      <c r="S329" t="n">
+      <c r="T329" t="n">
         <v>4</v>
       </c>
-      <c r="T329" t="n">
+      <c r="U329" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20711,16 +22356,21 @@
       <c r="P330" t="n">
         <v>7</v>
       </c>
-      <c r="Q330" t="n">
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R330" t="n">
         <v>55</v>
       </c>
-      <c r="R330" t="n">
-        <v>2</v>
-      </c>
       <c r="S330" t="n">
+        <v>2</v>
+      </c>
+      <c r="T330" t="n">
         <v>4</v>
       </c>
-      <c r="T330" t="n">
+      <c r="U330" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20771,16 +22421,21 @@
       <c r="P331" t="n">
         <v>7</v>
       </c>
-      <c r="Q331" t="n">
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R331" t="n">
         <v>55</v>
       </c>
-      <c r="R331" t="n">
-        <v>1</v>
-      </c>
       <c r="S331" t="n">
+        <v>1</v>
+      </c>
+      <c r="T331" t="n">
         <v>4</v>
       </c>
-      <c r="T331" t="n">
+      <c r="U331" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20833,16 +22488,21 @@
       <c r="P332" t="n">
         <v>7</v>
       </c>
-      <c r="Q332" t="n">
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R332" t="n">
         <v>54</v>
       </c>
-      <c r="R332" t="n">
+      <c r="S332" t="n">
         <v>6</v>
       </c>
-      <c r="S332" t="n">
+      <c r="T332" t="n">
         <v>4</v>
       </c>
-      <c r="T332" t="n">
+      <c r="U332" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20891,16 +22551,21 @@
       <c r="P333" t="n">
         <v>7</v>
       </c>
-      <c r="Q333" t="n">
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R333" t="n">
         <v>54</v>
       </c>
-      <c r="R333" t="n">
+      <c r="S333" t="n">
         <v>5</v>
       </c>
-      <c r="S333" t="n">
+      <c r="T333" t="n">
         <v>4</v>
       </c>
-      <c r="T333" t="n">
+      <c r="U333" t="n">
         <v>2</v>
       </c>
     </row>
@@ -20949,16 +22614,21 @@
       <c r="P334" t="n">
         <v>7</v>
       </c>
-      <c r="Q334" t="n">
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R334" t="n">
         <v>54</v>
-      </c>
-      <c r="R334" t="n">
-        <v>4</v>
       </c>
       <c r="S334" t="n">
         <v>4</v>
       </c>
       <c r="T334" t="n">
+        <v>4</v>
+      </c>
+      <c r="U334" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21007,16 +22677,21 @@
       <c r="P335" t="n">
         <v>7</v>
       </c>
-      <c r="Q335" t="n">
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R335" t="n">
         <v>54</v>
       </c>
-      <c r="R335" t="n">
+      <c r="S335" t="n">
         <v>3</v>
       </c>
-      <c r="S335" t="n">
+      <c r="T335" t="n">
         <v>4</v>
       </c>
-      <c r="T335" t="n">
+      <c r="U335" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21065,16 +22740,21 @@
       <c r="P336" t="n">
         <v>7</v>
       </c>
-      <c r="Q336" t="n">
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R336" t="n">
         <v>54</v>
       </c>
-      <c r="R336" t="n">
-        <v>2</v>
-      </c>
       <c r="S336" t="n">
+        <v>2</v>
+      </c>
+      <c r="T336" t="n">
         <v>4</v>
       </c>
-      <c r="T336" t="n">
+      <c r="U336" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21123,16 +22803,21 @@
       <c r="P337" t="n">
         <v>7</v>
       </c>
-      <c r="Q337" t="n">
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R337" t="n">
         <v>54</v>
       </c>
-      <c r="R337" t="n">
-        <v>1</v>
-      </c>
       <c r="S337" t="n">
+        <v>1</v>
+      </c>
+      <c r="T337" t="n">
         <v>4</v>
       </c>
-      <c r="T337" t="n">
+      <c r="U337" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21193,16 +22878,21 @@
       <c r="P338" t="n">
         <v>6</v>
       </c>
-      <c r="Q338" t="n">
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R338" t="n">
         <v>50</v>
       </c>
-      <c r="R338" t="n">
+      <c r="S338" t="n">
         <v>5</v>
       </c>
-      <c r="S338" t="n">
+      <c r="T338" t="n">
         <v>4</v>
       </c>
-      <c r="T338" t="n">
+      <c r="U338" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21253,16 +22943,21 @@
       <c r="P339" t="n">
         <v>6</v>
       </c>
-      <c r="Q339" t="n">
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R339" t="n">
         <v>50</v>
-      </c>
-      <c r="R339" t="n">
-        <v>4</v>
       </c>
       <c r="S339" t="n">
         <v>4</v>
       </c>
       <c r="T339" t="n">
+        <v>4</v>
+      </c>
+      <c r="U339" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21313,16 +23008,21 @@
       <c r="P340" t="n">
         <v>6</v>
       </c>
-      <c r="Q340" t="n">
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R340" t="n">
         <v>50</v>
       </c>
-      <c r="R340" t="n">
+      <c r="S340" t="n">
         <v>3</v>
       </c>
-      <c r="S340" t="n">
+      <c r="T340" t="n">
         <v>4</v>
       </c>
-      <c r="T340" t="n">
+      <c r="U340" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21373,16 +23073,21 @@
       <c r="P341" t="n">
         <v>6</v>
       </c>
-      <c r="Q341" t="n">
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R341" t="n">
         <v>50</v>
       </c>
-      <c r="R341" t="n">
-        <v>2</v>
-      </c>
       <c r="S341" t="n">
+        <v>2</v>
+      </c>
+      <c r="T341" t="n">
         <v>4</v>
       </c>
-      <c r="T341" t="n">
+      <c r="U341" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21433,16 +23138,21 @@
       <c r="P342" t="n">
         <v>6</v>
       </c>
-      <c r="Q342" t="n">
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R342" t="n">
         <v>50</v>
       </c>
-      <c r="R342" t="n">
-        <v>1</v>
-      </c>
       <c r="S342" t="n">
+        <v>1</v>
+      </c>
+      <c r="T342" t="n">
         <v>4</v>
       </c>
-      <c r="T342" t="n">
+      <c r="U342" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21503,16 +23213,21 @@
       <c r="P343" t="n">
         <v>6</v>
       </c>
-      <c r="Q343" t="n">
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R343" t="n">
         <v>49</v>
       </c>
-      <c r="R343" t="n">
+      <c r="S343" t="n">
         <v>5</v>
       </c>
-      <c r="S343" t="n">
+      <c r="T343" t="n">
         <v>4</v>
       </c>
-      <c r="T343" t="n">
+      <c r="U343" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21563,16 +23278,21 @@
       <c r="P344" t="n">
         <v>6</v>
       </c>
-      <c r="Q344" t="n">
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R344" t="n">
         <v>49</v>
-      </c>
-      <c r="R344" t="n">
-        <v>4</v>
       </c>
       <c r="S344" t="n">
         <v>4</v>
       </c>
       <c r="T344" t="n">
+        <v>4</v>
+      </c>
+      <c r="U344" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21623,16 +23343,21 @@
       <c r="P345" t="n">
         <v>6</v>
       </c>
-      <c r="Q345" t="n">
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R345" t="n">
         <v>49</v>
       </c>
-      <c r="R345" t="n">
+      <c r="S345" t="n">
         <v>3</v>
       </c>
-      <c r="S345" t="n">
+      <c r="T345" t="n">
         <v>4</v>
       </c>
-      <c r="T345" t="n">
+      <c r="U345" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21683,16 +23408,21 @@
       <c r="P346" t="n">
         <v>6</v>
       </c>
-      <c r="Q346" t="n">
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R346" t="n">
         <v>49</v>
       </c>
-      <c r="R346" t="n">
-        <v>2</v>
-      </c>
       <c r="S346" t="n">
+        <v>2</v>
+      </c>
+      <c r="T346" t="n">
         <v>4</v>
       </c>
-      <c r="T346" t="n">
+      <c r="U346" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21743,16 +23473,21 @@
       <c r="P347" t="n">
         <v>6</v>
       </c>
-      <c r="Q347" t="n">
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R347" t="n">
         <v>49</v>
       </c>
-      <c r="R347" t="n">
-        <v>1</v>
-      </c>
       <c r="S347" t="n">
+        <v>1</v>
+      </c>
+      <c r="T347" t="n">
         <v>4</v>
       </c>
-      <c r="T347" t="n">
+      <c r="U347" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21809,16 +23544,21 @@
       <c r="P348" t="n">
         <v>6</v>
       </c>
-      <c r="Q348" t="n">
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R348" t="n">
         <v>48</v>
-      </c>
-      <c r="R348" t="n">
-        <v>4</v>
       </c>
       <c r="S348" t="n">
         <v>4</v>
       </c>
       <c r="T348" t="n">
+        <v>4</v>
+      </c>
+      <c r="U348" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21869,16 +23609,21 @@
       <c r="P349" t="n">
         <v>6</v>
       </c>
-      <c r="Q349" t="n">
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R349" t="n">
         <v>48</v>
       </c>
-      <c r="R349" t="n">
+      <c r="S349" t="n">
         <v>3</v>
       </c>
-      <c r="S349" t="n">
+      <c r="T349" t="n">
         <v>4</v>
       </c>
-      <c r="T349" t="n">
+      <c r="U349" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21929,16 +23674,21 @@
       <c r="P350" t="n">
         <v>6</v>
       </c>
-      <c r="Q350" t="n">
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R350" t="n">
         <v>48</v>
       </c>
-      <c r="R350" t="n">
-        <v>2</v>
-      </c>
       <c r="S350" t="n">
+        <v>2</v>
+      </c>
+      <c r="T350" t="n">
         <v>4</v>
       </c>
-      <c r="T350" t="n">
+      <c r="U350" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21989,16 +23739,21 @@
       <c r="P351" t="n">
         <v>6</v>
       </c>
-      <c r="Q351" t="n">
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R351" t="n">
         <v>48</v>
       </c>
-      <c r="R351" t="n">
-        <v>1</v>
-      </c>
       <c r="S351" t="n">
+        <v>1</v>
+      </c>
+      <c r="T351" t="n">
         <v>4</v>
       </c>
-      <c r="T351" t="n">
+      <c r="U351" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22057,16 +23812,21 @@
       <c r="P352" t="n">
         <v>6</v>
       </c>
-      <c r="Q352" t="n">
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R352" t="n">
         <v>47</v>
       </c>
-      <c r="R352" t="n">
+      <c r="S352" t="n">
         <v>5</v>
       </c>
-      <c r="S352" t="n">
+      <c r="T352" t="n">
         <v>4</v>
       </c>
-      <c r="T352" t="n">
+      <c r="U352" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22115,16 +23875,21 @@
       <c r="P353" t="n">
         <v>6</v>
       </c>
-      <c r="Q353" t="n">
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R353" t="n">
         <v>47</v>
-      </c>
-      <c r="R353" t="n">
-        <v>4</v>
       </c>
       <c r="S353" t="n">
         <v>4</v>
       </c>
       <c r="T353" t="n">
+        <v>4</v>
+      </c>
+      <c r="U353" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22173,16 +23938,21 @@
       <c r="P354" t="n">
         <v>6</v>
       </c>
-      <c r="Q354" t="n">
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R354" t="n">
         <v>47</v>
       </c>
-      <c r="R354" t="n">
+      <c r="S354" t="n">
         <v>3</v>
       </c>
-      <c r="S354" t="n">
+      <c r="T354" t="n">
         <v>4</v>
       </c>
-      <c r="T354" t="n">
+      <c r="U354" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22231,16 +24001,21 @@
       <c r="P355" t="n">
         <v>6</v>
       </c>
-      <c r="Q355" t="n">
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R355" t="n">
         <v>47</v>
       </c>
-      <c r="R355" t="n">
-        <v>2</v>
-      </c>
       <c r="S355" t="n">
+        <v>2</v>
+      </c>
+      <c r="T355" t="n">
         <v>4</v>
       </c>
-      <c r="T355" t="n">
+      <c r="U355" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22289,16 +24064,21 @@
       <c r="P356" t="n">
         <v>6</v>
       </c>
-      <c r="Q356" t="n">
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R356" t="n">
         <v>47</v>
       </c>
-      <c r="R356" t="n">
-        <v>1</v>
-      </c>
       <c r="S356" t="n">
+        <v>1</v>
+      </c>
+      <c r="T356" t="n">
         <v>4</v>
       </c>
-      <c r="T356" t="n">
+      <c r="U356" t="n">
         <v>2</v>
       </c>
     </row>
@@ -22359,16 +24139,21 @@
       <c r="P357" t="n">
         <v>5</v>
       </c>
-      <c r="Q357" t="n">
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R357" t="n">
         <v>48</v>
       </c>
-      <c r="R357" t="n">
-        <v>1</v>
-      </c>
       <c r="S357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T357" t="n">
+        <v>0</v>
+      </c>
+      <c r="U357" t="n">
         <v>7</v>
       </c>
     </row>
@@ -22429,16 +24214,21 @@
       <c r="P358" t="n">
         <v>5</v>
       </c>
-      <c r="Q358" t="n">
+      <c r="Q358" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R358" t="n">
         <v>47</v>
       </c>
-      <c r="R358" t="n">
-        <v>1</v>
-      </c>
       <c r="S358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T358" t="n">
+        <v>0</v>
+      </c>
+      <c r="U358" t="n">
         <v>7</v>
       </c>
     </row>
@@ -22491,16 +24281,21 @@
       <c r="P359" t="n">
         <v>5</v>
       </c>
-      <c r="Q359" t="n">
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R359" t="n">
         <v>46</v>
       </c>
-      <c r="R359" t="n">
+      <c r="S359" t="n">
         <v>4</v>
       </c>
-      <c r="S359" t="n">
-        <v>0</v>
-      </c>
       <c r="T359" t="n">
+        <v>0</v>
+      </c>
+      <c r="U359" t="n">
         <v>7</v>
       </c>
     </row>
@@ -22549,16 +24344,21 @@
       <c r="P360" t="n">
         <v>5</v>
       </c>
-      <c r="Q360" t="n">
+      <c r="Q360" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R360" t="n">
         <v>46</v>
       </c>
-      <c r="R360" t="n">
+      <c r="S360" t="n">
         <v>3</v>
       </c>
-      <c r="S360" t="n">
-        <v>0</v>
-      </c>
       <c r="T360" t="n">
+        <v>0</v>
+      </c>
+      <c r="U360" t="n">
         <v>7</v>
       </c>
     </row>
@@ -22607,16 +24407,21 @@
       <c r="P361" t="n">
         <v>5</v>
       </c>
-      <c r="Q361" t="n">
+      <c r="Q361" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R361" t="n">
         <v>46</v>
       </c>
-      <c r="R361" t="n">
-        <v>2</v>
-      </c>
       <c r="S361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T361" t="n">
+        <v>0</v>
+      </c>
+      <c r="U361" t="n">
         <v>7</v>
       </c>
     </row>
@@ -22665,16 +24470,21 @@
       <c r="P362" t="n">
         <v>5</v>
       </c>
-      <c r="Q362" t="n">
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R362" t="n">
         <v>46</v>
       </c>
-      <c r="R362" t="n">
-        <v>1</v>
-      </c>
       <c r="S362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T362" t="n">
+        <v>0</v>
+      </c>
+      <c r="U362" t="n">
         <v>7</v>
       </c>
     </row>
@@ -22731,16 +24541,21 @@
       <c r="P363" t="n">
         <v>5</v>
       </c>
-      <c r="Q363" t="n">
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R363" t="n">
         <v>45</v>
       </c>
-      <c r="R363" t="n">
-        <v>1</v>
-      </c>
       <c r="S363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T363" t="n">
+        <v>0</v>
+      </c>
+      <c r="U363" t="n">
         <v>7</v>
       </c>
     </row>
@@ -22797,16 +24612,21 @@
       <c r="P364" t="n">
         <v>5</v>
       </c>
-      <c r="Q364" t="n">
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R364" t="n">
         <v>44</v>
       </c>
-      <c r="R364" t="n">
-        <v>1</v>
-      </c>
       <c r="S364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T364" t="n">
+        <v>0</v>
+      </c>
+      <c r="U364" t="n">
         <v>7</v>
       </c>
     </row>
